--- a/data-transfer/transfer/data/cca/cca-student.xlsx
+++ b/data-transfer/transfer/data/cca/cca-student.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1335">
   <si>
     <t>MoM</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t>1/20/09</t>
+    <t>1/20/2009</t>
   </si>
   <si>
     <t>408-3068469</t>
@@ -109,7 +109,7 @@
     <t>Nandika Trivedi</t>
   </si>
   <si>
-    <t>12/30/08</t>
+    <t>12/30/2008</t>
   </si>
   <si>
     <r>
@@ -126,7 +126,7 @@
     <t>Saketh Elumalai</t>
   </si>
   <si>
-    <t>3/15/10</t>
+    <t>3/15/2010</t>
   </si>
   <si>
     <t>James Leitch</t>
@@ -144,7 +144,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>6/10/10</t>
+    <t>6/10/2010</t>
   </si>
   <si>
     <t>Zhen.v.zeng@gmail.com</t>
@@ -153,7 +153,7 @@
     <t>Rishi Saxena</t>
   </si>
   <si>
-    <t>12/26/09</t>
+    <t>12/26/2009</t>
   </si>
   <si>
     <t>Chadbourne</t>
@@ -173,7 +173,7 @@
     <t>Jessica Cao</t>
   </si>
   <si>
-    <t>2/7/09</t>
+    <t>2/7/2009</t>
   </si>
   <si>
     <t>408-439-2798</t>
@@ -200,7 +200,7 @@
     <t>Jingjing Lei</t>
   </si>
   <si>
-    <t>1/6/09</t>
+    <t>1/6/2009</t>
   </si>
   <si>
     <t>770-8141166</t>
@@ -212,7 +212,7 @@
     <t>Spencer Lin</t>
   </si>
   <si>
-    <t>10/21/07</t>
+    <t>10/21/2007</t>
   </si>
   <si>
     <t>xiaodou12@yahoo.com</t>
@@ -230,7 +230,7 @@
     <t>SHAURYA GULANI</t>
   </si>
   <si>
-    <t>9/13/08</t>
+    <t>9/13/2008</t>
   </si>
   <si>
     <t>510-456-5593</t>
@@ -253,7 +253,7 @@
     <t>Advika Anand</t>
   </si>
   <si>
-    <t>12/15/08</t>
+    <t>12/15/2008</t>
   </si>
   <si>
     <r>
@@ -284,7 +284,7 @@
     <t>female</t>
   </si>
   <si>
-    <t>6/3/10</t>
+    <t>6/3/2010</t>
   </si>
   <si>
     <t>Parkmont</t>
@@ -311,7 +311,7 @@
     <t>male</t>
   </si>
   <si>
-    <t>5/30/09</t>
+    <t>5/30/2009</t>
   </si>
   <si>
     <t>Weibel</t>
@@ -326,7 +326,7 @@
     <t>Eric Song</t>
   </si>
   <si>
-    <t>1/7/10</t>
+    <t>1/7/2010</t>
   </si>
   <si>
     <t>Zanker</t>
@@ -338,7 +338,7 @@
     <t>Sophia Shen</t>
   </si>
   <si>
-    <t>6/24/10</t>
+    <t>6/24/2010</t>
   </si>
   <si>
     <t>Shen_xf@yahoo.com</t>
@@ -350,7 +350,7 @@
     <t>Anya Wang</t>
   </si>
   <si>
-    <t>2/26/11</t>
+    <t>2/26/2011</t>
   </si>
   <si>
     <t>Kimber Hills Academy</t>
@@ -370,7 +370,7 @@
     <t>Ian Chen 2</t>
   </si>
   <si>
-    <t>5/24/09</t>
+    <t>5/24/2009</t>
   </si>
   <si>
     <t>510-928-3098</t>
@@ -394,7 +394,7 @@
     <t>Aria Devasia</t>
   </si>
   <si>
-    <t>8/11/11</t>
+    <t>8/11/2011</t>
   </si>
   <si>
     <t>skshopping@gmail.com</t>
@@ -412,7 +412,7 @@
     <t>Sophia Sung</t>
   </si>
   <si>
-    <t>11/4/10</t>
+    <t>11/4/2010</t>
   </si>
   <si>
     <t>Vivian_tseng_yj@yahoo.com.tw</t>
@@ -421,7 +421,7 @@
     <t>Aanya Solanki</t>
   </si>
   <si>
-    <t>2/16/11</t>
+    <t>2/16/2011</t>
   </si>
   <si>
     <t>508-494-5094</t>
@@ -433,7 +433,7 @@
     <t>Eesha Matham</t>
   </si>
   <si>
-    <t>5/14/11</t>
+    <t>5/14/2011</t>
   </si>
   <si>
     <r>
@@ -450,7 +450,7 @@
     <t>Jyotsna Munnungi</t>
   </si>
   <si>
-    <t>3/29/11</t>
+    <t>3/29/2011</t>
   </si>
   <si>
     <r>
@@ -467,7 +467,7 @@
     <t>Ellah Gong</t>
   </si>
   <si>
-    <t>9/28/09</t>
+    <t>9/28/2009</t>
   </si>
   <si>
     <t>Pomeroy</t>
@@ -479,7 +479,7 @@
     <t>Owen Song</t>
   </si>
   <si>
-    <t>1/20/07</t>
+    <t>1/20/2007</t>
   </si>
   <si>
     <t>408-3346928</t>
@@ -491,13 +491,13 @@
     <t>Joshua Zhang</t>
   </si>
   <si>
-    <t>10/8/06</t>
+    <t>10/8/2006</t>
   </si>
   <si>
     <t>Kathy Feng</t>
   </si>
   <si>
-    <t>10/9/09</t>
+    <t>10/9/2009</t>
   </si>
   <si>
     <t>spinlucyhou@gmail.com</t>
@@ -509,7 +509,7 @@
     <t>Kiana Yang</t>
   </si>
   <si>
-    <t>6/20/08</t>
+    <t>6/20/2008</t>
   </si>
   <si>
     <t>cathy_yue2000@yahoo.com</t>
@@ -521,7 +521,7 @@
     <t>Krish Kamal</t>
   </si>
   <si>
-    <t>8/21/07</t>
+    <t>8/21/2007</t>
   </si>
   <si>
     <t>Warm springs</t>
@@ -533,7 +533,7 @@
     <t>Sayali Kale</t>
   </si>
   <si>
-    <t>8/21/06</t>
+    <t>8/21/2006</t>
   </si>
   <si>
     <t>toralskale@yahoo.com</t>
@@ -542,7 +542,7 @@
     <t>Emma Wang</t>
   </si>
   <si>
-    <t>2/27/08</t>
+    <t>2/27/2008</t>
   </si>
   <si>
     <t>liuwei1@gmail.com</t>
@@ -554,7 +554,7 @@
     <t>Ada Quan</t>
   </si>
   <si>
-    <t>2/10/07</t>
+    <t>2/10/2007</t>
   </si>
   <si>
     <t>Jennychen71@hotmail.com</t>
@@ -569,7 +569,7 @@
     <t>Sophie Chen</t>
   </si>
   <si>
-    <t>2/22/06</t>
+    <t>2/22/2006</t>
   </si>
   <si>
     <t>Marshall Pomeroy</t>
@@ -581,7 +581,7 @@
     <t>Mandy Sun</t>
   </si>
   <si>
-    <t>10/11/06</t>
+    <t>10/11/2006</t>
   </si>
   <si>
     <t>ch.yan70@hotmail.com</t>
@@ -590,7 +590,7 @@
     <t>Tara Roy</t>
   </si>
   <si>
-    <t>2/14/07</t>
+    <t>2/14/2007</t>
   </si>
   <si>
     <t>Mission Valley</t>
@@ -605,7 +605,7 @@
     <t>Ryan Li</t>
   </si>
   <si>
-    <t>7/15/07</t>
+    <t>7/15/2007</t>
   </si>
   <si>
     <t>510-3667182</t>
@@ -623,7 +623,7 @@
     <t>Kate Gu</t>
   </si>
   <si>
-    <t>1/17/07</t>
+    <t>1/17/2007</t>
   </si>
   <si>
     <t>Harvey Green</t>
@@ -635,7 +635,7 @@
     <t>Allison Choi</t>
   </si>
   <si>
-    <t>4/22/09</t>
+    <t>4/22/2009</t>
   </si>
   <si>
     <t>Leitchh</t>
@@ -650,7 +650,7 @@
     <t>Ira Kulkarni</t>
   </si>
   <si>
-    <t>4/6/16</t>
+    <t>4/6/2016</t>
   </si>
   <si>
     <t>Weibel Elementary</t>
@@ -662,7 +662,7 @@
     <t>Anika Kanhere</t>
   </si>
   <si>
-    <t>3/28/05</t>
+    <t>3/28/2005</t>
   </si>
   <si>
     <t>Warm Springs</t>
@@ -680,7 +680,7 @@
     <t>Arista Zhu</t>
   </si>
   <si>
-    <t>9/3/04</t>
+    <t>9/3/2004</t>
   </si>
   <si>
     <t>sasaleilei@gmail.com</t>
@@ -689,7 +689,7 @@
     <t>Jessica Li</t>
   </si>
   <si>
-    <t>7/18/06</t>
+    <t>7/18/2006</t>
   </si>
   <si>
     <t>southli66@gmail.com</t>
@@ -701,7 +701,7 @@
     <t>Tiger Yang</t>
   </si>
   <si>
-    <t>6/9/05</t>
+    <t>6/9/2005</t>
   </si>
   <si>
     <t>qiangy@gmail.com</t>
@@ -713,7 +713,7 @@
     <t>Ashley Chung</t>
   </si>
   <si>
-    <t>7/31/04</t>
+    <t>7/31/2004</t>
   </si>
   <si>
     <t>aliciajia@gmail.com</t>
@@ -722,7 +722,7 @@
     <t>Aashi Shah</t>
   </si>
   <si>
-    <t>1/4/05</t>
+    <t>1/4/2005</t>
   </si>
   <si>
     <t>shah_lisa@yahoo.com</t>
@@ -734,7 +734,7 @@
     <t>Chengqi Li</t>
   </si>
   <si>
-    <t>11/17/04</t>
+    <t>11/17/2004</t>
   </si>
   <si>
     <t>xinghongying@hotmail.com</t>
@@ -746,7 +746,7 @@
     <t>Skomantas Kupciunas</t>
   </si>
   <si>
-    <t>11/15/02</t>
+    <t>11/15/2002</t>
   </si>
   <si>
     <t>Thomas Russel Middle School</t>
@@ -758,7 +758,7 @@
     <t>Fiona Zhao</t>
   </si>
   <si>
-    <t>1/1/01</t>
+    <t>1/1/2001</t>
   </si>
   <si>
     <t>Irvington</t>
@@ -779,7 +779,7 @@
     <t>Christine Han</t>
   </si>
   <si>
-    <t>6/28/05</t>
+    <t>6/28/2005</t>
   </si>
   <si>
     <t>Ruskin</t>
@@ -791,7 +791,7 @@
     <t>Nisha Jagannath</t>
   </si>
   <si>
-    <t>5/21/03</t>
+    <t>5/21/2003</t>
   </si>
   <si>
     <t>Horner</t>
@@ -806,7 +806,7 @@
     <t>Ishita Saxena</t>
   </si>
   <si>
-    <t>11/3/02</t>
+    <t>11/3/2002</t>
   </si>
   <si>
     <t>gunjan_22@yahoo.com</t>
@@ -821,7 +821,7 @@
     <t>Michelle Tran</t>
   </si>
   <si>
-    <t>8/4/03</t>
+    <t>8/4/2003</t>
   </si>
   <si>
     <t>Hopkins</t>
@@ -833,7 +833,7 @@
     <t>Midori Monosoff</t>
   </si>
   <si>
-    <t>8/26/03</t>
+    <t>8/26/2003</t>
   </si>
   <si>
     <t>kathrineliu@yahoo.com</t>
@@ -851,7 +851,7 @@
     <t>Kai Hu</t>
   </si>
   <si>
-    <t>5/26/11</t>
+    <t>5/26/2011</t>
   </si>
   <si>
     <t>nkimjj@hotmail.com</t>
@@ -866,7 +866,7 @@
     <t>Joshua Hu</t>
   </si>
   <si>
-    <t>6/8/10</t>
+    <t>6/8/2010</t>
   </si>
   <si>
     <t>Nkimjj@hotmail.com</t>
@@ -875,7 +875,7 @@
     <t>Ian Chen</t>
   </si>
   <si>
-    <t>2/20/09</t>
+    <t>2/20/2009</t>
   </si>
   <si>
     <t>maggie.xiang@gmail.com</t>
@@ -884,7 +884,7 @@
     <t>Daniel Zhu</t>
   </si>
   <si>
-    <t>8/24/09</t>
+    <t>8/24/2009</t>
   </si>
   <si>
     <t>Michelle.liu04@gmail.com</t>
@@ -893,7 +893,7 @@
     <t>Matthew Wang</t>
   </si>
   <si>
-    <t>4/2/10</t>
+    <t>4/2/2010</t>
   </si>
   <si>
     <t>nancy8313@gmail.com</t>
@@ -902,7 +902,7 @@
     <t>Suheng Tan</t>
   </si>
   <si>
-    <t>7/30/10</t>
+    <t>7/30/2010</t>
   </si>
   <si>
     <t>John Sinnott</t>
@@ -914,7 +914,7 @@
     <t>Aarav Daftary</t>
   </si>
   <si>
-    <t>8/11/09</t>
+    <t>8/11/2009</t>
   </si>
   <si>
     <t>408-386-2499</t>
@@ -951,7 +951,7 @@
     <t>Davian Dun</t>
   </si>
   <si>
-    <t>3/25/10</t>
+    <t>3/25/2010</t>
   </si>
   <si>
     <t>Serenadun@gmail.com</t>
@@ -960,7 +960,7 @@
     <t>Anika Mujumdar</t>
   </si>
   <si>
-    <t>3/18/12</t>
+    <t>3/18/2012</t>
   </si>
   <si>
     <t>408-7867515</t>
@@ -984,7 +984,7 @@
     <t>Vanessa Xu</t>
   </si>
   <si>
-    <t>11/14/09</t>
+    <t>11/14/2009</t>
   </si>
   <si>
     <t>408-528-4621</t>
@@ -999,7 +999,7 @@
     <t>Arielle George</t>
   </si>
   <si>
-    <t>4/19/10</t>
+    <t>4/19/2010</t>
   </si>
   <si>
     <t>Anita_herbert@yahoo.com</t>
@@ -1011,7 +1011,7 @@
     <t>Anupraya Sathiyanarayanan</t>
   </si>
   <si>
-    <t>12/19/09</t>
+    <t>12/19/2009</t>
   </si>
   <si>
     <t>psathiya@gmail.com</t>
@@ -1020,7 +1020,7 @@
     <t>Ava Shu</t>
   </si>
   <si>
-    <t>1/17/10</t>
+    <t>1/17/2010</t>
   </si>
   <si>
     <t>James leitch</t>
@@ -1035,7 +1035,7 @@
     <t>Ishita Raj</t>
   </si>
   <si>
-    <t>3/31/09</t>
+    <t>3/31/2009</t>
   </si>
   <si>
     <t>Gomes</t>
@@ -1055,13 +1055,13 @@
     <t>Cindy Shen</t>
   </si>
   <si>
-    <t>11/15/07</t>
+    <t>11/15/2007</t>
   </si>
   <si>
     <t>Ava Pedersen</t>
   </si>
   <si>
-    <t>11/2/07</t>
+    <t>11/2/2007</t>
   </si>
   <si>
     <t>yajingzhang@yahoo.com</t>
@@ -1073,7 +1073,7 @@
     <t>Aarna Patel</t>
   </si>
   <si>
-    <t>11/22/06</t>
+    <t>11/22/2006</t>
   </si>
   <si>
     <t>hetalp_us@yahoo.com</t>
@@ -1082,13 +1082,13 @@
     <t>Michael Zhu</t>
   </si>
   <si>
-    <t>1/8/07</t>
+    <t>1/8/2007</t>
   </si>
   <si>
     <t>Samvel Abram</t>
   </si>
   <si>
-    <t>4/25/08</t>
+    <t>4/25/2008</t>
   </si>
   <si>
     <t>lavanya.medari@gmail.com</t>
@@ -1097,13 +1097,13 @@
     <t>Aanika Daftary</t>
   </si>
   <si>
-    <t>6/4/06</t>
+    <t>6/4/2006</t>
   </si>
   <si>
     <t>Jessie Luo</t>
   </si>
   <si>
-    <t>8/3/08</t>
+    <t>8/3/2008</t>
   </si>
   <si>
     <t>510-338-8251</t>
@@ -1115,7 +1115,7 @@
     <t>Aayush Tarhalkar</t>
   </si>
   <si>
-    <t>7/16/08</t>
+    <t>7/16/2008</t>
   </si>
   <si>
     <t>rashmi.tarhalkar@gmail.com</t>
@@ -1124,7 +1124,7 @@
     <t>Alaina Liu</t>
   </si>
   <si>
-    <t>11/7/08</t>
+    <t>11/7/2008</t>
   </si>
   <si>
     <t>linwu1016@yahoo.com</t>
@@ -1145,7 +1145,7 @@
     <t>Kerry Xu</t>
   </si>
   <si>
-    <t>3/6/06</t>
+    <t>3/6/2006</t>
   </si>
   <si>
     <t>Prince of Peace</t>
@@ -1154,7 +1154,7 @@
     <t>Isha Kale</t>
   </si>
   <si>
-    <t>2/3/11</t>
+    <t>2/3/2011</t>
   </si>
   <si>
     <t>nskale@gmail.com</t>
@@ -1169,7 +1169,7 @@
     <t>Baolyn Lau</t>
   </si>
   <si>
-    <t>9/2/10</t>
+    <t>9/2/2010</t>
   </si>
   <si>
     <t>baowengao@gmail.com</t>
@@ -1181,7 +1181,7 @@
     <t>Sahithi Malla</t>
   </si>
   <si>
-    <t>10/22/10</t>
+    <t>10/22/2010</t>
   </si>
   <si>
     <t>Stratford</t>
@@ -1212,7 +1212,7 @@
     <t>Katthir Ravichandran</t>
   </si>
   <si>
-    <t>10/27/09</t>
+    <t>10/27/2009</t>
   </si>
   <si>
     <t>408 687 5426</t>
@@ -1224,7 +1224,7 @@
     <t>Jeremy Chen</t>
   </si>
   <si>
-    <t>1/30/07</t>
+    <t>1/30/2007</t>
   </si>
   <si>
     <t>juju130chen@gmail.com</t>
@@ -1233,7 +1233,7 @@
     <t>Joseph Zhao</t>
   </si>
   <si>
-    <t>4/7/09</t>
+    <t>4/7/2009</t>
   </si>
   <si>
     <t>brenda_then@yahoo.com</t>
@@ -1242,13 +1242,13 @@
     <t>Clara Zhao</t>
   </si>
   <si>
-    <t>11/1/07</t>
+    <t>11/1/2007</t>
   </si>
   <si>
     <t>ESHAINE/SUN</t>
   </si>
   <si>
-    <t>2/20/06</t>
+    <t>2/20/2006</t>
   </si>
   <si>
     <t>WEYFENCHEN@GMAIL.COM</t>
@@ -1257,7 +1257,7 @@
     <t>Arshiya Raj</t>
   </si>
   <si>
-    <t>5/25/05</t>
+    <t>5/25/2005</t>
   </si>
   <si>
     <t>hitikak@yahoo.com</t>
@@ -1269,7 +1269,7 @@
     <t>Joshua Huang</t>
   </si>
   <si>
-    <t>2/22/07</t>
+    <t>2/22/2007</t>
   </si>
   <si>
     <t>jessica.zh@gmail.com</t>
@@ -1278,7 +1278,7 @@
     <t>Avani Dharashivkar</t>
   </si>
   <si>
-    <t>6/12/08</t>
+    <t>6/12/2008</t>
   </si>
   <si>
     <t>509 981 4270</t>
@@ -1307,7 +1307,7 @@
     <t>Michael Qu</t>
   </si>
   <si>
-    <t>1/5/08</t>
+    <t>1/5/2008</t>
   </si>
   <si>
     <t>Mission SJ</t>
@@ -1319,7 +1319,7 @@
     <t>Sarvesh Kumar</t>
   </si>
   <si>
-    <t>4/20/08</t>
+    <t>4/20/2008</t>
   </si>
   <si>
     <t>408 8966621</t>
@@ -1334,7 +1334,7 @@
     <t>Nathan Bao</t>
   </si>
   <si>
-    <t>7/2/07</t>
+    <t>7/2/2007</t>
   </si>
   <si>
     <t>zhuhuiyu@hotmail.com</t>
@@ -1346,7 +1346,7 @@
     <t>Mohika Pandey</t>
   </si>
   <si>
-    <t>10/28/05</t>
+    <t>10/28/2005</t>
   </si>
   <si>
     <t>ushraddha@yahoo.com</t>
@@ -1358,7 +1358,7 @@
     <t>Chelsea Wang</t>
   </si>
   <si>
-    <t>12/7/07</t>
+    <t>12/7/2007</t>
   </si>
   <si>
     <t>Merryhill</t>
@@ -1370,7 +1370,7 @@
     <t>Kayden Tse</t>
   </si>
   <si>
-    <t>3/13/07</t>
+    <t>3/13/2007</t>
   </si>
   <si>
     <t>weijanice@hotmail.com</t>
@@ -1379,7 +1379,7 @@
     <t>Noey Ycaro</t>
   </si>
   <si>
-    <t>6/11/08</t>
+    <t>6/11/2008</t>
   </si>
   <si>
     <t>orchard school</t>
@@ -1399,7 +1399,7 @@
     <t>Wesley Ren</t>
   </si>
   <si>
-    <t>2/12/07</t>
+    <t>2/12/2007</t>
   </si>
   <si>
     <t>jji@visa.com</t>
@@ -1414,7 +1414,7 @@
     <t>William Xie</t>
   </si>
   <si>
-    <t>12/4/07</t>
+    <t>12/4/2007</t>
   </si>
   <si>
     <t>Lizhang1@gmail.com</t>
@@ -1426,7 +1426,7 @@
     <t>Emily Ding</t>
   </si>
   <si>
-    <t>10/13/09</t>
+    <t>10/13/2009</t>
   </si>
   <si>
     <t>jjing_yu@yahoo.com</t>
@@ -1438,7 +1438,7 @@
     <t>Carolyn Hom</t>
   </si>
   <si>
-    <t>11/2/08</t>
+    <t>11/2/2008</t>
   </si>
   <si>
     <t>yzsummer@yahoo.com</t>
@@ -1447,7 +1447,7 @@
     <t>Jaden Du</t>
   </si>
   <si>
-    <t>9/21/07</t>
+    <t>9/21/2007</t>
   </si>
   <si>
     <t>iriswang2005@yahoo.com</t>
@@ -1459,7 +1459,7 @@
     <t>Yvonne Yun</t>
   </si>
   <si>
-    <t>10/25/07</t>
+    <t>10/25/2007</t>
   </si>
   <si>
     <t>Yping1@yahoo.com</t>
@@ -1477,7 +1477,7 @@
     <t>Eric Li</t>
   </si>
   <si>
-    <t>7/26/03</t>
+    <t>7/26/2003</t>
   </si>
   <si>
     <t>jinghai.yin@gmail.com</t>
@@ -1486,7 +1486,7 @@
     <t>Benjamin Qu</t>
   </si>
   <si>
-    <t>7/25/05</t>
+    <t>7/25/2005</t>
   </si>
   <si>
     <t>quyb@yahoo.com</t>
@@ -1495,7 +1495,7 @@
     <t>Jenny Hou</t>
   </si>
   <si>
-    <t>6/9/03</t>
+    <t>6/9/2003</t>
   </si>
   <si>
     <t>lifang2000@yahoo.com</t>
@@ -1504,7 +1504,7 @@
     <t>Vishali Vallioor</t>
   </si>
   <si>
-    <t>10/6/03</t>
+    <t>10/6/2003</t>
   </si>
   <si>
     <t>shobanakirthi@comcast.net</t>
@@ -1513,7 +1513,7 @@
     <t>Tavishi Bansal</t>
   </si>
   <si>
-    <t>8/3/06</t>
+    <t>8/3/2006</t>
   </si>
   <si>
     <t>ritzbansal@gmail.com</t>
@@ -1522,7 +1522,7 @@
     <t>Alex He</t>
   </si>
   <si>
-    <t>5/7/05</t>
+    <t>5/7/2005</t>
   </si>
   <si>
     <t>duyan2002@hotmail.com</t>
@@ -1534,7 +1534,7 @@
     <t>Tabitha Masamit</t>
   </si>
   <si>
-    <t>8/8/06</t>
+    <t>8/8/2006</t>
   </si>
   <si>
     <t>Millard</t>
@@ -1549,7 +1549,7 @@
     <t>Michelle Fan</t>
   </si>
   <si>
-    <t>10/3/04</t>
+    <t>10/3/2004</t>
   </si>
   <si>
     <t>warmspringsnow@gmail.com</t>
@@ -1558,7 +1558,7 @@
     <t>Arielle Choi</t>
   </si>
   <si>
-    <t>1/13/16</t>
+    <t>1/13/2016</t>
   </si>
   <si>
     <t>warm sprimg</t>
@@ -1570,7 +1570,7 @@
     <t>Sharon Miao</t>
   </si>
   <si>
-    <t>9/19/02</t>
+    <t>9/19/2002</t>
   </si>
   <si>
     <t>joannemiao@gmail.com</t>
@@ -1579,7 +1579,7 @@
     <t>Farrah Lin</t>
   </si>
   <si>
-    <t>8/25/03</t>
+    <t>8/25/2003</t>
   </si>
   <si>
     <t>lmjmdfs@gmail.com</t>
@@ -1591,7 +1591,7 @@
     <t>Melissa Jin</t>
   </si>
   <si>
-    <t>3/7/07</t>
+    <t>3/7/2007</t>
   </si>
   <si>
     <t>linxia21@yahoo.com</t>
@@ -1600,13 +1600,13 @@
     <t>Sophia Ren</t>
   </si>
   <si>
-    <t>1/15/05</t>
+    <t>1/15/2005</t>
   </si>
   <si>
     <t>Kalmintas Kupciunas</t>
   </si>
   <si>
-    <t>6/17/00</t>
+    <t>6/17/2000</t>
   </si>
   <si>
     <t>Milpitas Hi</t>
@@ -1615,7 +1615,7 @@
     <t>Reeya Dharmadhikari</t>
   </si>
   <si>
-    <t>11/13/03</t>
+    <t>11/13/2003</t>
   </si>
   <si>
     <t>Horner Junior</t>
@@ -1627,7 +1627,7 @@
     <t>Alan Zhou</t>
   </si>
   <si>
-    <t>2/18/04</t>
+    <t>2/18/2004</t>
   </si>
   <si>
     <t>Kimber Hills</t>
@@ -1642,7 +1642,7 @@
     <t>Evan Cao</t>
   </si>
   <si>
-    <t>2/5/10</t>
+    <t>2/5/2010</t>
   </si>
   <si>
     <t>510-3355095</t>
@@ -1660,7 +1660,7 @@
     <t>chinatta@gmail.com</t>
   </si>
   <si>
-    <t>Staturday</t>
+    <t>Saturday</t>
   </si>
   <si>
     <t>9:00</t>
@@ -1672,7 +1672,7 @@
     <t>Irene Lu</t>
   </si>
   <si>
-    <t>7/21/10</t>
+    <t>7/21/2010</t>
   </si>
   <si>
     <t>tracy.chai@gmail.com</t>
@@ -1681,7 +1681,7 @@
     <t>Sofia Choo</t>
   </si>
   <si>
-    <t>11/29/10</t>
+    <t>11/29/2010</t>
   </si>
   <si>
     <t>kchoo128@yahoo.com</t>
@@ -1690,7 +1690,7 @@
     <t>Serena Xiao</t>
   </si>
   <si>
-    <t>12/11/11</t>
+    <t>12/11/2011</t>
   </si>
   <si>
     <t>Milpitas Christian</t>
@@ -1702,7 +1702,7 @@
     <t>Ryan Xiao</t>
   </si>
   <si>
-    <t>11/26/10</t>
+    <t>11/26/2010</t>
   </si>
   <si>
     <t>songyueming@hotmail.com</t>
@@ -1711,7 +1711,7 @@
     <t>Kayla Siah</t>
   </si>
   <si>
-    <t>8/31/11</t>
+    <t>8/31/2011</t>
   </si>
   <si>
     <t>Monarch Christian</t>
@@ -1723,7 +1723,7 @@
     <t>Mahi Kumar</t>
   </si>
   <si>
-    <t>11/17/09</t>
+    <t>11/17/2009</t>
   </si>
   <si>
     <t>new horizon</t>
@@ -1735,7 +1735,7 @@
     <t>Charles Guo</t>
   </si>
   <si>
-    <t>12/30/09</t>
+    <t>12/30/2009</t>
   </si>
   <si>
     <t>Mohr</t>
@@ -1753,7 +1753,7 @@
     <t>James Qiao</t>
   </si>
   <si>
-    <t>5/4/10</t>
+    <t>5/4/2010</t>
   </si>
   <si>
     <t>qifengqiao@gmail.com</t>
@@ -1762,7 +1762,7 @@
     <t>Emma Xia</t>
   </si>
   <si>
-    <t>1/20/11</t>
+    <t>1/20/2011</t>
   </si>
   <si>
     <t>zhangwxuan@gmail.com</t>
@@ -1771,7 +1771,7 @@
     <t>Geetika Maheshwari</t>
   </si>
   <si>
-    <t>10/18/09</t>
+    <t>10/18/2009</t>
   </si>
   <si>
     <t>sumanbhutra@yahoo.com</t>
@@ -1780,7 +1780,7 @@
     <t>Bradley Cai</t>
   </si>
   <si>
-    <t>5/10/10</t>
+    <t>5/10/2010</t>
   </si>
   <si>
     <t>mission valley</t>
@@ -1800,7 +1800,7 @@
     <t>Nicole Xiong</t>
   </si>
   <si>
-    <t>12/22/10</t>
+    <t>12/22/2010</t>
   </si>
   <si>
     <t>vv1122@gmail.com</t>
@@ -1809,7 +1809,7 @@
     <t>Caitlin Hou</t>
   </si>
   <si>
-    <t>2/10/11</t>
+    <t>2/10/2011</t>
   </si>
   <si>
     <t>Wiebel</t>
@@ -1840,13 +1840,13 @@
     <t>Alva Hou</t>
   </si>
   <si>
-    <t>8/17/09</t>
+    <t>8/17/2009</t>
   </si>
   <si>
     <t>Coral Huang</t>
   </si>
   <si>
-    <t>3/18/11</t>
+    <t>3/18/2011</t>
   </si>
   <si>
     <t>huang_yc@hotmail.com</t>
@@ -1864,7 +1864,7 @@
     <t>Kevin Ma</t>
   </si>
   <si>
-    <t>2/15/09</t>
+    <t>2/15/2009</t>
   </si>
   <si>
     <t>fsmic@yahoo.com</t>
@@ -1873,7 +1873,7 @@
     <t>Ethan An</t>
   </si>
   <si>
-    <t>6/28/11</t>
+    <t>6/28/2011</t>
   </si>
   <si>
     <t>futaian@gmail.com</t>
@@ -1885,7 +1885,7 @@
     <t>Hasika Bandaru</t>
   </si>
   <si>
-    <t>2/21/10</t>
+    <t>2/21/2010</t>
   </si>
   <si>
     <t>(408)250-9713</t>
@@ -1900,7 +1900,7 @@
     <t>Leah Le</t>
   </si>
   <si>
-    <t>3/25/11</t>
+    <t>3/25/2011</t>
   </si>
   <si>
     <t>Crystalprc@yahoo.com</t>
@@ -1909,7 +1909,7 @@
     <t>Amelia Chase</t>
   </si>
   <si>
-    <t>8/5/11</t>
+    <t>8/5/2011</t>
   </si>
   <si>
     <t>shaqing@yahoo.com</t>
@@ -1921,7 +1921,7 @@
     <t>Ailsa Chan</t>
   </si>
   <si>
-    <t>3/22/10</t>
+    <t>3/22/2010</t>
   </si>
   <si>
     <t>pinxianl@yahoo.com</t>
@@ -1939,7 +1939,7 @@
     <t>Tanya Mark</t>
   </si>
   <si>
-    <t>11/20/09</t>
+    <t>11/20/2009</t>
   </si>
   <si>
     <t>chrys.grace@gmail.com</t>
@@ -1951,7 +1951,7 @@
     <t>Ellie Yang</t>
   </si>
   <si>
-    <t>10/18/10</t>
+    <t>10/18/2010</t>
   </si>
   <si>
     <t>MonarchChris</t>
@@ -1963,7 +1963,7 @@
     <t>Arushi Maheshwari</t>
   </si>
   <si>
-    <t>2/11/10</t>
+    <t>2/11/2010</t>
   </si>
   <si>
     <t>aseemm@gmail.com</t>
@@ -1972,7 +1972,7 @@
     <t>Rajat Naik</t>
   </si>
   <si>
-    <t>12/25/09</t>
+    <t>12/25/2009</t>
   </si>
   <si>
     <r>
@@ -1989,7 +1989,7 @@
     <t>Nikil Sriram</t>
   </si>
   <si>
-    <t>10/11/09</t>
+    <t>10/11/2009</t>
   </si>
   <si>
     <t>akila.lakia@gmail.com</t>
@@ -2001,7 +2001,7 @@
     <t>Vivian Liu</t>
   </si>
   <si>
-    <t>9/26/08</t>
+    <t>9/26/2008</t>
   </si>
   <si>
     <r>
@@ -2018,7 +2018,7 @@
     <t>Anchen Wan</t>
   </si>
   <si>
-    <t>6/2/11</t>
+    <t>6/2/2011</t>
   </si>
   <si>
     <t>408-876-8344</t>
@@ -2033,7 +2033,7 @@
     <t>Norah Nikhil</t>
   </si>
   <si>
-    <t>12/14/09</t>
+    <t>12/14/2009</t>
   </si>
   <si>
     <t>408-9310101</t>
@@ -2048,7 +2048,7 @@
     <t>Helen Tao</t>
   </si>
   <si>
-    <t>9/14/10</t>
+    <t>9/14/2010</t>
   </si>
   <si>
     <t>lindahua73@gmail.com</t>
@@ -2060,7 +2060,7 @@
     <t>Allen Huang</t>
   </si>
   <si>
-    <t>3/19/10</t>
+    <t>3/19/2010</t>
   </si>
   <si>
     <t>xufangc@yahoo.com</t>
@@ -2072,7 +2072,7 @@
     <t>Viola Han</t>
   </si>
   <si>
-    <t>3/31/01</t>
+    <t>3/31/2001</t>
   </si>
   <si>
     <t>408-318-0485</t>
@@ -2103,7 +2103,7 @@
     <t>Hasini Deepak</t>
   </si>
   <si>
-    <t>6/21/11</t>
+    <t>6/21/2011</t>
   </si>
   <si>
     <t>Kindercare</t>
@@ -2115,7 +2115,7 @@
     <t>Marvin/Chen</t>
   </si>
   <si>
-    <t>4/26/12</t>
+    <t>4/26/2012</t>
   </si>
   <si>
     <t>WAHA Montessori</t>
@@ -2127,7 +2127,7 @@
     <t>Patrick Aoun</t>
   </si>
   <si>
-    <t>7/27/10</t>
+    <t>7/27/2010</t>
   </si>
   <si>
     <t>paul.aoun@gmail.com</t>
@@ -2142,13 +2142,13 @@
     <t>Max He</t>
   </si>
   <si>
-    <t>11/16/09</t>
+    <t>11/16/2009</t>
   </si>
   <si>
     <t>Sophie Zhang</t>
   </si>
   <si>
-    <t>9/21/11</t>
+    <t>9/21/2011</t>
   </si>
   <si>
     <t>MerryHill</t>
@@ -2168,7 +2168,7 @@
     <t>Adela Zhang</t>
   </si>
   <si>
-    <t>8/25/10</t>
+    <t>8/25/2010</t>
   </si>
   <si>
     <t>209-576-5528</t>
@@ -2197,7 +2197,7 @@
     <t>Megan hu</t>
   </si>
   <si>
-    <t>3/7/11</t>
+    <t>3/7/2011</t>
   </si>
   <si>
     <t>helenxiangliu@yahoo.com</t>
@@ -2212,7 +2212,7 @@
     <t>Annie Yu</t>
   </si>
   <si>
-    <t>11/30/09</t>
+    <t>11/30/2009</t>
   </si>
   <si>
     <t>libing.wang@gmail.com</t>
@@ -2224,7 +2224,7 @@
     <t>Isabelle Wu</t>
   </si>
   <si>
-    <t>7/20/07</t>
+    <t>7/20/2007</t>
   </si>
   <si>
     <t>hwu67@yahoo.com</t>
@@ -2236,7 +2236,7 @@
     <t>Janet Guan</t>
   </si>
   <si>
-    <t>10/15/08</t>
+    <t>10/15/2008</t>
   </si>
   <si>
     <t>yfguan9814@gmail.com</t>
@@ -2248,7 +2248,7 @@
     <t>Joshua Han</t>
   </si>
   <si>
-    <t>3/25/06</t>
+    <t>3/25/2006</t>
   </si>
   <si>
     <t>hollyh88@gmail.com</t>
@@ -2266,7 +2266,7 @@
     <t>Kevin Liu</t>
   </si>
   <si>
-    <t>4/8/08</t>
+    <t>4/8/2008</t>
   </si>
   <si>
     <t>binghua.chai@gmail.com</t>
@@ -2275,7 +2275,7 @@
     <t>uma raina</t>
   </si>
   <si>
-    <t>7/30/09</t>
+    <t>7/30/2009</t>
   </si>
   <si>
     <t>amritak24@yahoo.com</t>
@@ -2287,13 +2287,13 @@
     <t>Justin Wu</t>
   </si>
   <si>
-    <t>12/1/06</t>
+    <t>12/1/2006</t>
   </si>
   <si>
     <t>Maxwell Zhang</t>
   </si>
   <si>
-    <t>8/14/06</t>
+    <t>8/14/2006</t>
   </si>
   <si>
     <t>fairsea8@gmail.com</t>
@@ -2305,7 +2305,7 @@
     <t>Justin Chow</t>
   </si>
   <si>
-    <t>7/11/07</t>
+    <t>7/11/2007</t>
   </si>
   <si>
     <t>Milpitas Chr</t>
@@ -2320,7 +2320,7 @@
     <t>Caroline Yan</t>
   </si>
   <si>
-    <t>6/2/04</t>
+    <t>6/2/2004</t>
   </si>
   <si>
     <t>wei.vicky.yang@gmail.com</t>
@@ -2329,7 +2329,7 @@
     <t>Abigail Yee</t>
   </si>
   <si>
-    <t>2/23/09</t>
+    <t>2/23/2009</t>
   </si>
   <si>
     <t>margtse@yahoo.com</t>
@@ -2338,7 +2338,7 @@
     <t>Terry Wang</t>
   </si>
   <si>
-    <t>5/18/07</t>
+    <t>5/18/2007</t>
   </si>
   <si>
     <t>leizwang@yahoo.com</t>
@@ -2350,7 +2350,7 @@
     <t>Josephine Sun</t>
   </si>
   <si>
-    <t>1/12/09</t>
+    <t>1/12/2009</t>
   </si>
   <si>
     <t>kellytdinh@yahoo.com</t>
@@ -2362,13 +2362,13 @@
     <t>Ivy Lu</t>
   </si>
   <si>
-    <t>11/17/07</t>
+    <t>11/17/2007</t>
   </si>
   <si>
     <t>Andrew Zeng</t>
   </si>
   <si>
-    <t>8/24/08</t>
+    <t>8/24/2008</t>
   </si>
   <si>
     <t>4085088388?</t>
@@ -2383,7 +2383,7 @@
     <t>Connie Li</t>
   </si>
   <si>
-    <t>3/5/08</t>
+    <t>3/5/2008</t>
   </si>
   <si>
     <t>Brookvale</t>
@@ -2398,7 +2398,7 @@
     <t>Claribel Chen</t>
   </si>
   <si>
-    <t>2/26/08</t>
+    <t>2/26/2008</t>
   </si>
   <si>
     <t>jingma70@gmail.com</t>
@@ -2407,13 +2407,13 @@
     <t>Fiona Chan</t>
   </si>
   <si>
-    <t>10/2/07</t>
+    <t>10/2/2007</t>
   </si>
   <si>
     <t>Jayden Wong</t>
   </si>
   <si>
-    <t>1/18/07</t>
+    <t>1/18/2007</t>
   </si>
   <si>
     <t>Yu_a_2000@yahoo.com</t>
@@ -2431,13 +2431,13 @@
     <t>Derek Yang</t>
   </si>
   <si>
-    <t>3/8/08</t>
+    <t>3/8/2008</t>
   </si>
   <si>
     <t>Yike Chen</t>
   </si>
   <si>
-    <t>2/5/09</t>
+    <t>2/5/2009</t>
   </si>
   <si>
     <t>butter3344@gmail.com</t>
@@ -2457,13 +2457,13 @@
     <t>Srithika Sriram</t>
   </si>
   <si>
-    <t>6/28/08</t>
+    <t>6/28/2008</t>
   </si>
   <si>
     <t>Lynn Shen</t>
   </si>
   <si>
-    <t>10/14/08</t>
+    <t>10/14/2008</t>
   </si>
   <si>
     <t>805-6370971</t>
@@ -2478,7 +2478,7 @@
     <t>Vanessa Wang</t>
   </si>
   <si>
-    <t>9/29/07</t>
+    <t>9/29/2007</t>
   </si>
   <si>
     <t>dongli.zeng@gmail.com</t>
@@ -2490,7 +2490,7 @@
     <t>Vanessa Lee</t>
   </si>
   <si>
-    <t>1/25/07</t>
+    <t>1/25/2007</t>
   </si>
   <si>
     <t>hp1910@hotmail.com</t>
@@ -2502,7 +2502,7 @@
     <t>Carolyn Bai</t>
   </si>
   <si>
-    <t>9/22/07</t>
+    <t>9/22/2007</t>
   </si>
   <si>
     <t>yueefeng@gmail.com</t>
@@ -2520,7 +2520,7 @@
     <t>Alan Xie</t>
   </si>
   <si>
-    <t>2/24/08</t>
+    <t>2/24/2008</t>
   </si>
   <si>
     <t>Tom Matsumoto</t>
@@ -2532,7 +2532,7 @@
     <t>Vivian Wu</t>
   </si>
   <si>
-    <t>11/6/09</t>
+    <t>11/6/2009</t>
   </si>
   <si>
     <t>liuxh28@hotmail.com</t>
@@ -2544,13 +2544,13 @@
     <t>Andrae Wan</t>
   </si>
   <si>
-    <t>3/19/07</t>
+    <t>3/19/2007</t>
   </si>
   <si>
     <t>Kathryn Liang</t>
   </si>
   <si>
-    <t>2/13/07</t>
+    <t>2/13/2007</t>
   </si>
   <si>
     <r>
@@ -2570,13 +2570,13 @@
     <t>Kristine Liang</t>
   </si>
   <si>
-    <t>6/29/06</t>
+    <t>6/29/2006</t>
   </si>
   <si>
     <t>Ritisha Chakrabarty</t>
   </si>
   <si>
-    <t>12/22/05</t>
+    <t>12/22/2005</t>
   </si>
   <si>
     <t>bsangi@gmail.com</t>
@@ -2585,7 +2585,7 @@
     <t>Allyson Yu</t>
   </si>
   <si>
-    <t>7/24/09</t>
+    <t>7/24/2009</t>
   </si>
   <si>
     <t>allan_cisco@yahoo.com</t>
@@ -2594,13 +2594,13 @@
     <t>Meghaa Ravichandran</t>
   </si>
   <si>
-    <t>9/30/05</t>
+    <t>9/30/2005</t>
   </si>
   <si>
     <t>Kelly Jia</t>
   </si>
   <si>
-    <t>7/1/07</t>
+    <t>7/1/2007</t>
   </si>
   <si>
     <t>vqin3000@gmail.com</t>
@@ -2609,7 +2609,7 @@
     <t>Janice Wang</t>
   </si>
   <si>
-    <t>9/19/07</t>
+    <t>9/19/2007</t>
   </si>
   <si>
     <t>jjjjune@yahoo.com</t>
@@ -2621,7 +2621,7 @@
     <t>Dora Gao</t>
   </si>
   <si>
-    <t>12/24/06</t>
+    <t>12/24/2006</t>
   </si>
   <si>
     <t>bulma133@hotmail.com</t>
@@ -2630,7 +2630,7 @@
     <t>Bridget Liang</t>
   </si>
   <si>
-    <t>6/14/07</t>
+    <t>6/14/2007</t>
   </si>
   <si>
     <t>lidan.yu@gmail.com</t>
@@ -2639,7 +2639,7 @@
     <t>Alex Zhao</t>
   </si>
   <si>
-    <t>8/28/07</t>
+    <t>8/28/2007</t>
   </si>
   <si>
     <t>rzhangnj@yahoo.com</t>
@@ -2648,7 +2648,7 @@
     <t>DuanDuan Zheng</t>
   </si>
   <si>
-    <t>6/14/08</t>
+    <t>6/14/2008</t>
   </si>
   <si>
     <t>James Bunker</t>
@@ -2660,7 +2660,7 @@
     <t>Kevin Xu</t>
   </si>
   <si>
-    <t>4/30/06</t>
+    <t>4/30/2006</t>
   </si>
   <si>
     <t>qun_shen2001@yahoo.com</t>
@@ -2669,7 +2669,7 @@
     <t>Lisa Qian</t>
   </si>
   <si>
-    <t>1/11/07</t>
+    <t>1/11/2007</t>
   </si>
   <si>
     <t>Lianglisa78@gmail.com</t>
@@ -2678,7 +2678,7 @@
     <t>Arushi Mallick</t>
   </si>
   <si>
-    <t>8/11/10</t>
+    <t>8/11/2010</t>
   </si>
   <si>
     <t>Monticello</t>
@@ -2699,7 +2699,7 @@
     <t>Justin Yao</t>
   </si>
   <si>
-    <t>5/5/09</t>
+    <t>5/5/2009</t>
   </si>
   <si>
     <t>nanzhao688@gmail.com</t>
@@ -2708,13 +2708,13 @@
     <t>Sebastian Liang</t>
   </si>
   <si>
-    <t>9/22/10</t>
+    <t>9/22/2010</t>
   </si>
   <si>
     <t>Evan Chen</t>
   </si>
   <si>
-    <t>2/6/10</t>
+    <t>2/6/2010</t>
   </si>
   <si>
     <t>ztyaner11@gmail.com</t>
@@ -2726,13 +2726,13 @@
     <t>Serena Wang</t>
   </si>
   <si>
-    <t>6/8/09</t>
+    <t>6/8/2009</t>
   </si>
   <si>
     <t>Sophie Qi</t>
   </si>
   <si>
-    <t>12/19/10</t>
+    <t>12/19/2010</t>
   </si>
   <si>
     <r>
@@ -2749,7 +2749,7 @@
     <t>Siqi Feng</t>
   </si>
   <si>
-    <t>9/14/09</t>
+    <t>9/14/2009</t>
   </si>
   <si>
     <t>cuiyan1@gmail.com</t>
@@ -2761,7 +2761,7 @@
     <t>Able Liang</t>
   </si>
   <si>
-    <t>5/29/08</t>
+    <t>5/29/2008</t>
   </si>
   <si>
     <t>jayo_5678@yahoo.com</t>
@@ -2779,7 +2779,7 @@
     <t>Miranda Bong</t>
   </si>
   <si>
-    <t>5/8/03</t>
+    <t>5/8/2003</t>
   </si>
   <si>
     <t>Iron horse</t>
@@ -2797,7 +2797,7 @@
     <t>Anna Xiao</t>
   </si>
   <si>
-    <t>6/21/04</t>
+    <t>6/21/2004</t>
   </si>
   <si>
     <t>Maloney</t>
@@ -2812,7 +2812,7 @@
     <t>Alan Li</t>
   </si>
   <si>
-    <t>8/31/04</t>
+    <t>8/31/2004</t>
   </si>
   <si>
     <t>sam.liyun@gmail.com</t>
@@ -2821,7 +2821,7 @@
     <t>Satabdiya Roy</t>
   </si>
   <si>
-    <t>9/16/01</t>
+    <t>9/16/2001</t>
   </si>
   <si>
     <t>MSJ</t>
@@ -2836,13 +2836,13 @@
     <t>Shaunak Roy</t>
   </si>
   <si>
-    <t>6/4/04</t>
+    <t>6/4/2004</t>
   </si>
   <si>
     <t>Angela Zhang</t>
   </si>
   <si>
-    <t>10/26/04</t>
+    <t>10/26/2004</t>
   </si>
   <si>
     <t>Business_me@yahoo.com</t>
@@ -2854,7 +2854,7 @@
     <t>Julia Zhan</t>
   </si>
   <si>
-    <t>4/1/04</t>
+    <t>4/1/2004</t>
   </si>
   <si>
     <t>sli96@yahoo.com</t>
@@ -2863,13 +2863,13 @@
     <t>William Zhan</t>
   </si>
   <si>
-    <t>5/10/02</t>
+    <t>5/10/2002</t>
   </si>
   <si>
     <t>Marquis Hall</t>
   </si>
   <si>
-    <t>9/22/15</t>
+    <t>9/22/2015</t>
   </si>
   <si>
     <t>Milpitas High</t>
@@ -2887,7 +2887,7 @@
     <t>Savan Bollu</t>
   </si>
   <si>
-    <t>9/7/06</t>
+    <t>9/7/2006</t>
   </si>
   <si>
     <t>408480-9577</t>
@@ -2918,7 +2918,7 @@
     <t>Jason Wang</t>
   </si>
   <si>
-    <t>2/2/05</t>
+    <t>2/2/2005</t>
   </si>
   <si>
     <t>Shirley1005@hotmail.com</t>
@@ -2942,7 +2942,7 @@
     <t>Alice Zhu</t>
   </si>
   <si>
-    <t>5/25/03</t>
+    <t>5/25/2003</t>
   </si>
   <si>
     <t>zhuxiaoyun@gmail.com</t>
@@ -2954,7 +2954,7 @@
     <t>Shweta Raghuram</t>
   </si>
   <si>
-    <t>5/18/04</t>
+    <t>5/18/2004</t>
   </si>
   <si>
     <t>408 904 962</t>
@@ -2966,7 +2966,7 @@
     <t>Nihal Sundarraj</t>
   </si>
   <si>
-    <t>4/3/03</t>
+    <t>4/3/2003</t>
   </si>
   <si>
     <t>sakunthala78@gmail.com</t>
@@ -2981,7 +2981,7 @@
     <t>Christina Chi</t>
   </si>
   <si>
-    <t>11/15/01</t>
+    <t>11/15/2001</t>
   </si>
   <si>
     <t>annashi8@hotmail.com</t>
@@ -2990,7 +2990,7 @@
     <t>Twisha Kurlagunda</t>
   </si>
   <si>
-    <t>3/14/02</t>
+    <t>3/14/2002</t>
   </si>
   <si>
     <t>rohini.raghunathan@gmail.com</t>
@@ -3002,7 +3002,7 @@
     <t>Saniya Jain</t>
   </si>
   <si>
-    <t>8/27/03</t>
+    <t>8/27/2003</t>
   </si>
   <si>
     <t>charu.mittal@gmail.com</t>
@@ -3032,7 +3032,7 @@
     <t>Mandy Ko</t>
   </si>
   <si>
-    <t>8/9/01</t>
+    <t>8/9/2001</t>
   </si>
   <si>
     <t>Tinayuko88@yahoo.com</t>
@@ -3044,7 +3044,7 @@
     <t>Grace Guo</t>
   </si>
   <si>
-    <t>9/12/04</t>
+    <t>9/12/2004</t>
   </si>
   <si>
     <t>TomMatsumoto</t>
@@ -3059,13 +3059,13 @@
     <t>Sherry Fan</t>
   </si>
   <si>
-    <t>10/3/01</t>
+    <t>10/3/2001</t>
   </si>
   <si>
     <t>Ani Zhang</t>
   </si>
   <si>
-    <t>10/15/04</t>
+    <t>10/15/2004</t>
   </si>
   <si>
     <t>209-3240950</t>
@@ -3083,7 +3083,7 @@
     <t>Goldie Jin</t>
   </si>
   <si>
-    <t>10/19/01</t>
+    <t>10/19/2001</t>
   </si>
   <si>
     <t>John Muir</t>
@@ -3095,7 +3095,7 @@
     <t>Abhiram Raghuram</t>
   </si>
   <si>
-    <t>1/14/02</t>
+    <t>1/14/2002</t>
   </si>
   <si>
     <t>408 9049620</t>
@@ -3104,7 +3104,7 @@
     <t>Sama Srinivas</t>
   </si>
   <si>
-    <t>8/2/00</t>
+    <t>8/2/2000</t>
   </si>
   <si>
     <t>suman_sudhir@hotmail.com</t>
@@ -3116,7 +3116,7 @@
     <t>Michelle Deng</t>
   </si>
   <si>
-    <t>6/18/03</t>
+    <t>6/18/2003</t>
   </si>
   <si>
     <t>408-6669916</t>
@@ -3131,7 +3131,7 @@
     <t>Anya Agarwal</t>
   </si>
   <si>
-    <t>12/4/02</t>
+    <t>12/4/2002</t>
   </si>
   <si>
     <t>ruchira.agarwal21@gmail.com</t>
@@ -3143,7 +3143,7 @@
     <t>Jennifer Deng</t>
   </si>
   <si>
-    <t>2/1/16</t>
+    <t>2/1/2016</t>
   </si>
   <si>
     <t>Pioneer High School</t>
@@ -3155,7 +3155,7 @@
     <t>Joey Zhu</t>
   </si>
   <si>
-    <t>9/14/01</t>
+    <t>9/14/2001</t>
   </si>
   <si>
     <t>California High</t>
@@ -3179,7 +3179,7 @@
     <t>Aryan Prodduturi</t>
   </si>
   <si>
-    <t>1/1/04</t>
+    <t>1/1/2004</t>
   </si>
   <si>
     <t>rekhaprodduturi@gmail.com</t>
@@ -3188,7 +3188,7 @@
     <t>Eric Zhou</t>
   </si>
   <si>
-    <t>10/21/05</t>
+    <t>10/21/2005</t>
   </si>
   <si>
     <t>Fanglinzhang@hotmail.com</t>
@@ -3214,7 +3214,7 @@
     <t>kevin zhang</t>
   </si>
   <si>
-    <t>1/5/06</t>
+    <t>1/5/2006</t>
   </si>
   <si>
     <t>htzzht@hotmail.com</t>
@@ -3223,7 +3223,7 @@
     <t>Lydia Liu</t>
   </si>
   <si>
-    <t>8/27/10</t>
+    <t>8/27/2010</t>
   </si>
   <si>
     <t>Carlton</t>
@@ -3235,13 +3235,10 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>10;00</t>
-  </si>
-  <si>
     <t>Daniel Wang</t>
   </si>
   <si>
-    <t>2/24/09</t>
+    <t>2/24/2009</t>
   </si>
   <si>
     <t>brianwang@hotmail.com</t>
@@ -3253,7 +3250,7 @@
     <t>Brian Zhang</t>
   </si>
   <si>
-    <t>7/26/11</t>
+    <t>7/26/2011</t>
   </si>
   <si>
     <t>Xqchen81@hotmail.com</t>
@@ -3262,7 +3259,7 @@
     <t>Lutecia Lam</t>
   </si>
   <si>
-    <t>3/3/10</t>
+    <t>3/3/2010</t>
   </si>
   <si>
     <t>selhui@yahoo.com</t>
@@ -3274,7 +3271,7 @@
     <t>Ansel Wang</t>
   </si>
   <si>
-    <t>2/22/10</t>
+    <t>2/22/2010</t>
   </si>
   <si>
     <t>lindenbear@gmail.com</t>
@@ -3286,7 +3283,7 @@
     <t>Steven Svihovec</t>
   </si>
   <si>
-    <t>1/12/10</t>
+    <t>1/12/2010</t>
   </si>
   <si>
     <t>diana.yu@gmail.com</t>
@@ -3295,7 +3292,7 @@
     <t>Sophia Luo</t>
   </si>
   <si>
-    <t>8/14/09</t>
+    <t>8/14/2009</t>
   </si>
   <si>
     <t>jenfzh@gmail.com</t>
@@ -3304,7 +3301,7 @@
     <t>Eric Huang</t>
   </si>
   <si>
-    <t>9/26/10</t>
+    <t>9/26/2010</t>
   </si>
   <si>
     <t>taipingyoung@gmail.com</t>
@@ -3313,7 +3310,7 @@
     <t>Tristan Roath</t>
   </si>
   <si>
-    <t>9/24/10</t>
+    <t>9/24/2010</t>
   </si>
   <si>
     <t>cao.roath@gmail.com</t>
@@ -3322,7 +3319,7 @@
     <t>stella yang</t>
   </si>
   <si>
-    <t>10/4/11</t>
+    <t>10/4/2011</t>
   </si>
   <si>
     <t>513 885 9926</t>
@@ -3342,7 +3339,7 @@
     <t>Kevin Jin</t>
   </si>
   <si>
-    <t>3/22/11</t>
+    <t>3/22/2011</t>
   </si>
   <si>
     <t>510-7423261</t>
@@ -3365,7 +3362,7 @@
     <t>Annaya Baphna</t>
   </si>
   <si>
-    <t>5/13/10</t>
+    <t>5/13/2010</t>
   </si>
   <si>
     <t>kothari_preeti@yahoo.com</t>
@@ -3374,7 +3371,7 @@
     <t>Anjali Nayyar</t>
   </si>
   <si>
-    <t>11/3/09</t>
+    <t>11/3/2009</t>
   </si>
   <si>
     <r>
@@ -3402,7 +3399,7 @@
     <t>Laasya Sambu</t>
   </si>
   <si>
-    <t>10/9/10</t>
+    <t>10/9/2010</t>
   </si>
   <si>
     <t>lagisetty_pallavi@yahoo.com</t>
@@ -3414,7 +3411,7 @@
     <t>Ashwath Raghu</t>
   </si>
   <si>
-    <t>12/15/10</t>
+    <t>12/15/2010</t>
   </si>
   <si>
     <t>Straford</t>
@@ -3445,7 +3442,7 @@
     <t>Celine Almaqablah</t>
   </si>
   <si>
-    <t>4/19/11</t>
+    <t>4/19/2011</t>
   </si>
   <si>
     <t>mazenakos@gmail.com</t>
@@ -3454,7 +3451,7 @@
     <t>Malek Alhussien</t>
   </si>
   <si>
-    <t>12/24/10</t>
+    <t>12/24/2010</t>
   </si>
   <si>
     <t>hakimhussien@gmail.com</t>
@@ -3466,7 +3463,7 @@
     <t>Phillip Lu</t>
   </si>
   <si>
-    <t>4/8/09</t>
+    <t>4/8/2009</t>
   </si>
   <si>
     <t>haoyan@msn.com</t>
@@ -3478,7 +3475,7 @@
     <t>Silas Ip</t>
   </si>
   <si>
-    <t>4/5/11</t>
+    <t>4/5/2011</t>
   </si>
   <si>
     <r>
@@ -3495,7 +3492,7 @@
     <t>Sarina Wang</t>
   </si>
   <si>
-    <t>5/30/10</t>
+    <t>5/30/2010</t>
   </si>
   <si>
     <t>wsway@yahoo.com</t>
@@ -3504,7 +3501,7 @@
     <t>Robert Yang</t>
   </si>
   <si>
-    <t>11/22/10</t>
+    <t>11/22/2010</t>
   </si>
   <si>
     <t>Booktree</t>
@@ -3516,7 +3513,7 @@
     <t>Jessica Wang</t>
   </si>
   <si>
-    <t>11/18/10</t>
+    <t>11/18/2010</t>
   </si>
   <si>
     <t>wiknut@yahoo.com</t>
@@ -3525,7 +3522,7 @@
     <t>Angela Fu</t>
   </si>
   <si>
-    <t>10/1/10</t>
+    <t>10/1/2010</t>
   </si>
   <si>
     <t>wuyin79@gmail.com</t>
@@ -3534,7 +3531,7 @@
     <t>Kira Hao</t>
   </si>
   <si>
-    <t>7/12/10</t>
+    <t>7/12/2010</t>
   </si>
   <si>
     <t>hannahxjin@gmail.com</t>
@@ -3557,7 +3554,7 @@
     <t>Helio Shen</t>
   </si>
   <si>
-    <t>9/4/10</t>
+    <t>9/4/2010</t>
   </si>
   <si>
     <t>zoe7670@hotmail.com</t>
@@ -3569,7 +3566,7 @@
     <t>Kiana Zhang</t>
   </si>
   <si>
-    <t>9/20/16</t>
+    <t>9/20/2016</t>
   </si>
   <si>
     <t>haitaoww@gmail.com</t>
@@ -3578,7 +3575,7 @@
     <t>Ella Dong</t>
   </si>
   <si>
-    <t>9/1/11</t>
+    <t>9/1/2011</t>
   </si>
   <si>
     <r>
@@ -3595,7 +3592,7 @@
     <t>Joanna Yu</t>
   </si>
   <si>
-    <t>10/27/11</t>
+    <t>10/27/2011</t>
   </si>
   <si>
     <t>qxuelei@gmail.com</t>
@@ -3604,7 +3601,7 @@
     <t>Michael Liu</t>
   </si>
   <si>
-    <t>12/14/10</t>
+    <t>12/14/2010</t>
   </si>
   <si>
     <t>saimbb@gmail.com</t>
@@ -3613,7 +3610,7 @@
     <t>Frank Xia</t>
   </si>
   <si>
-    <t>8/31/10</t>
+    <t>8/31/2010</t>
   </si>
   <si>
     <t>Monarch</t>
@@ -3628,7 +3625,7 @@
     <t>Riya Pande</t>
   </si>
   <si>
-    <t>10/12/11</t>
+    <t>10/12/2011</t>
   </si>
   <si>
     <r>
@@ -3645,7 +3642,7 @@
     <t>Sophie Tran</t>
   </si>
   <si>
-    <t>6/4/09</t>
+    <t>6/4/2009</t>
   </si>
   <si>
     <t>408-627-0486</t>
@@ -3693,7 +3690,7 @@
     <t>Yulong Gong</t>
   </si>
   <si>
-    <t>3/29/08</t>
+    <t>3/29/2008</t>
   </si>
   <si>
     <t>gongrb@hotmail.com</t>
@@ -3705,7 +3702,7 @@
     <t>Ishita Jalan</t>
   </si>
   <si>
-    <t>3/4/07</t>
+    <t>3/4/2007</t>
   </si>
   <si>
     <t>nehajalan.us@gmail.com</t>
@@ -3717,19 +3714,19 @@
     <t>Bretton Lam</t>
   </si>
   <si>
-    <t>2/25/08</t>
+    <t>2/25/2008</t>
   </si>
   <si>
     <t>Lucas Liu</t>
   </si>
   <si>
-    <t>5/17/09</t>
+    <t>5/17/2009</t>
   </si>
   <si>
     <t>Kaydence Liu</t>
   </si>
   <si>
-    <t>4/7/06</t>
+    <t>4/7/2006</t>
   </si>
   <si>
     <t>Millikin</t>
@@ -3744,7 +3741,7 @@
     <t>Sara Svihovec</t>
   </si>
   <si>
-    <t>1/22/08</t>
+    <t>1/22/2008</t>
   </si>
   <si>
     <t>svihovec@hotmail.com</t>
@@ -3753,7 +3750,7 @@
     <t>Xilang Lin</t>
   </si>
   <si>
-    <t>11/21/07</t>
+    <t>11/21/2007</t>
   </si>
   <si>
     <t>Northwood</t>
@@ -3765,13 +3762,13 @@
     <t>Francis Luo</t>
   </si>
   <si>
-    <t>12/20/06</t>
+    <t>12/20/2006</t>
   </si>
   <si>
     <t>Kelly Zhou</t>
   </si>
   <si>
-    <t>1/10/07</t>
+    <t>1/10/2007</t>
   </si>
   <si>
     <t>12:00</t>
@@ -3780,7 +3777,7 @@
     <t>Michelle Wan</t>
   </si>
   <si>
-    <t>4/17/06</t>
+    <t>4/17/2006</t>
   </si>
   <si>
     <t>Saratoga</t>
@@ -3792,7 +3789,7 @@
     <t>Satina Guo</t>
   </si>
   <si>
-    <t>6/19/07</t>
+    <t>6/19/2007</t>
   </si>
   <si>
     <t>Evergreen</t>
@@ -3804,7 +3801,7 @@
     <t>Lillian Ma</t>
   </si>
   <si>
-    <t>6/26/07</t>
+    <t>6/26/2007</t>
   </si>
   <si>
     <t>603-9217489</t>
@@ -3819,7 +3816,7 @@
     <t>Alisa Liao</t>
   </si>
   <si>
-    <t>3/2/07</t>
+    <t>3/2/2007</t>
   </si>
   <si>
     <t>qingfen_qiao@yahoo.com</t>
@@ -3831,7 +3828,7 @@
     <t>Jiaheng Huang</t>
   </si>
   <si>
-    <t>12/7/06</t>
+    <t>12/7/2006</t>
   </si>
   <si>
     <t>varadero1223@gmail.com</t>
@@ -3852,7 +3849,7 @@
     <t>Natalie Zhang</t>
   </si>
   <si>
-    <t>3/10/10</t>
+    <t>3/10/2010</t>
   </si>
   <si>
     <t>408-8343996</t>
@@ -3870,7 +3867,7 @@
     <t>Emily Deng</t>
   </si>
   <si>
-    <t>1/25/09</t>
+    <t>1/25/2009</t>
   </si>
   <si>
     <t>Lideng2011@gmail.com</t>
@@ -3882,7 +3879,7 @@
     <t>Sarah Xu</t>
   </si>
   <si>
-    <t>11/19/07</t>
+    <t>11/19/2007</t>
   </si>
   <si>
     <t>Majestic Way</t>
@@ -3894,7 +3891,7 @@
     <t>Nivrith Raman</t>
   </si>
   <si>
-    <t>7/4/06</t>
+    <t>7/4/2006</t>
   </si>
   <si>
     <t>ammalee@yahoo.com</t>
@@ -3915,7 +3912,7 @@
     <t>Serena Ho</t>
   </si>
   <si>
-    <t>3/23/08</t>
+    <t>3/23/2008</t>
   </si>
   <si>
     <t>Missonhill</t>
@@ -3927,7 +3924,7 @@
     <t>Grace Yao</t>
   </si>
   <si>
-    <t>4/4/06</t>
+    <t>4/4/2006</t>
   </si>
   <si>
     <t>Forest Park</t>
@@ -3945,7 +3942,7 @@
     <t>Alex Duan</t>
   </si>
   <si>
-    <t>3/28/08</t>
+    <t>3/28/2008</t>
   </si>
   <si>
     <t>fenghellen@yahoo.com</t>
@@ -3960,7 +3957,7 @@
     <t>Yui Hayashi</t>
   </si>
   <si>
-    <t>11/19/08</t>
+    <t>11/19/2008</t>
   </si>
   <si>
     <t>yuhei.hayashi@gmail.com</t>
@@ -3972,7 +3969,7 @@
     <t>Joseph Han</t>
   </si>
   <si>
-    <t>4/21/07</t>
+    <t>4/21/2007</t>
   </si>
   <si>
     <t>johngina@gmail.com</t>
@@ -3981,19 +3978,19 @@
     <t>Stella Wang</t>
   </si>
   <si>
-    <t>7/15/06</t>
+    <t>7/15/2006</t>
   </si>
   <si>
     <t>Ryan Ho</t>
   </si>
   <si>
-    <t>8/24/07</t>
+    <t>8/24/2007</t>
   </si>
   <si>
     <t>Mary Han</t>
   </si>
   <si>
-    <t>5/5/06</t>
+    <t>5/5/2006</t>
   </si>
   <si>
     <t>Hassan Mteuzi</t>
@@ -4027,7 +4024,7 @@
     <t>FeiFei liu</t>
   </si>
   <si>
-    <t>10/1/07</t>
+    <t>10/1/2007</t>
   </si>
   <si>
     <t>brookvale</t>
@@ -4042,7 +4039,7 @@
     <t>Jonathan Li</t>
   </si>
   <si>
-    <t>2/12/09</t>
+    <t>2/12/2009</t>
   </si>
   <si>
     <t>ylavalanche@yahoo.com</t>
@@ -4054,7 +4051,7 @@
     <t>Naomi Kai</t>
   </si>
   <si>
-    <t>11/12/08</t>
+    <t>11/12/2008</t>
   </si>
   <si>
     <t>nanda4ucla@yahoo.com</t>
@@ -4063,7 +4060,7 @@
     <t>Rahul Kalidindi</t>
   </si>
   <si>
-    <t>2/28/05</t>
+    <t>2/28/2005</t>
   </si>
   <si>
     <t>408 6502876</t>
@@ -4083,7 +4080,7 @@
     <t>Ananya Nagaraju</t>
   </si>
   <si>
-    <t>4/5/04</t>
+    <t>4/5/2004</t>
   </si>
   <si>
     <t>WarmSpring</t>
@@ -4114,13 +4111,13 @@
     <t>Siya Singh</t>
   </si>
   <si>
-    <t>8/28/08</t>
+    <t>8/28/2008</t>
   </si>
   <si>
     <t>William Zhang</t>
   </si>
   <si>
-    <t>1/14/05</t>
+    <t>1/14/2005</t>
   </si>
   <si>
     <t>ushuihui@gmail.com</t>
@@ -4129,7 +4126,7 @@
     <t>Catherine Wang</t>
   </si>
   <si>
-    <t>12/22/06</t>
+    <t>12/22/2006</t>
   </si>
   <si>
     <t>RainbowMont</t>
@@ -4144,7 +4141,7 @@
     <t>Caton Zhu</t>
   </si>
   <si>
-    <t>9/16/04</t>
+    <t>9/16/2004</t>
   </si>
   <si>
     <t>jeanqw@yahoo.com</t>
@@ -4153,7 +4150,7 @@
     <t>Jada Loc</t>
   </si>
   <si>
-    <t>3/25/05</t>
+    <t>3/25/2005</t>
   </si>
   <si>
     <t>Kllbabydd@yahoo.com</t>
@@ -4162,25 +4159,25 @@
     <t>JiaHui Huang</t>
   </si>
   <si>
-    <t>11/8/03</t>
+    <t>11/8/2003</t>
   </si>
   <si>
     <t>Emily Lan</t>
   </si>
   <si>
-    <t>9/25/05</t>
+    <t>9/25/2005</t>
   </si>
   <si>
     <t>Akash Nayyar</t>
   </si>
   <si>
-    <t>4/12/03</t>
+    <t>4/12/2003</t>
   </si>
   <si>
     <t>Lisa Feng</t>
   </si>
   <si>
-    <t>7/15/05</t>
+    <t>7/15/2005</t>
   </si>
   <si>
     <t>408-8339351</t>
@@ -4192,7 +4189,7 @@
     <t>Kashikar</t>
   </si>
   <si>
-    <t>2/27/02</t>
+    <t>2/27/2002</t>
   </si>
   <si>
     <t>650-303-0844</t>
@@ -4215,7 +4212,7 @@
     <t>Moiz Noorali</t>
   </si>
   <si>
-    <t>1/31/00</t>
+    <t>1/31/2000</t>
   </si>
   <si>
     <t>CA Virtual</t>
@@ -4227,7 +4224,7 @@
     <t>Grace Jin</t>
   </si>
   <si>
-    <t>10/24/06</t>
+    <t>10/24/2006</t>
   </si>
   <si>
     <t>Noble</t>
@@ -4248,7 +4245,7 @@
     <t>Pratistha Sisodia</t>
   </si>
   <si>
-    <t>8/16/05</t>
+    <t>8/16/2005</t>
   </si>
   <si>
     <t>510-2400973</t>
@@ -4260,13 +4257,13 @@
     <t>Ananya Anand</t>
   </si>
   <si>
-    <t>3/27/05</t>
+    <t>3/27/2005</t>
   </si>
   <si>
     <t>Ameyaa Wagh</t>
   </si>
   <si>
-    <t>2/6/05</t>
+    <t>2/6/2005</t>
   </si>
   <si>
     <t>warm spring</t>
@@ -4278,13 +4275,13 @@
     <t>Grace Lu</t>
   </si>
   <si>
-    <t>5/28/04</t>
+    <t>5/28/2004</t>
   </si>
   <si>
     <t>Jerry Xu</t>
   </si>
   <si>
-    <t>3/20/02</t>
+    <t>3/20/2002</t>
   </si>
   <si>
     <t>Sierramont</t>
@@ -4293,7 +4290,7 @@
     <t>Margaret Xi</t>
   </si>
   <si>
-    <t>5/11/05</t>
+    <t>5/11/2005</t>
   </si>
   <si>
     <t>Xxflj@yahoo.com</t>
@@ -4302,13 +4299,13 @@
     <t>Andrew Xi</t>
   </si>
   <si>
-    <t>6/26/02</t>
+    <t>6/26/2002</t>
   </si>
   <si>
     <t>Kevin Cui</t>
   </si>
   <si>
-    <t>6/8/03</t>
+    <t>6/8/2003</t>
   </si>
   <si>
     <t>Thorton</t>
@@ -4317,7 +4314,7 @@
     <t>helenli2012@yahoo.com</t>
   </si>
   <si>
-    <t>6/12/02</t>
+    <t>6/12/2002</t>
   </si>
   <si>
     <t>sara.xu@gmail.com</t>
@@ -4326,7 +4323,7 @@
     <t>Usha Namburu</t>
   </si>
   <si>
-    <t>5/29/05</t>
+    <t>5/29/2005</t>
   </si>
   <si>
     <t>sirikoppu@gmail.com</t>
@@ -4338,13 +4335,13 @@
     <t>Alvin Zhu</t>
   </si>
   <si>
-    <t>9/15/02</t>
+    <t>9/15/2002</t>
   </si>
   <si>
     <t>Michael Cao</t>
   </si>
   <si>
-    <t>8/7/99</t>
+    <t>8/7/1999</t>
   </si>
   <si>
     <t>dkongmike@yahoo.com</t>
@@ -4353,13 +4350,13 @@
     <t>Sarah Liao</t>
   </si>
   <si>
-    <t>11/6/01</t>
+    <t>11/6/2001</t>
   </si>
   <si>
     <t>Angela Xuan</t>
   </si>
   <si>
-    <t>1/9/02</t>
+    <t>1/9/2002</t>
   </si>
   <si>
     <t>hhu1@yahoo.com</t>
@@ -4371,13 +4368,13 @@
     <t>Christine Xuan</t>
   </si>
   <si>
-    <t>6/30/00</t>
+    <t>6/30/2000</t>
   </si>
   <si>
     <t>Ian Ho</t>
   </si>
   <si>
-    <t>10/28/02</t>
+    <t>10/28/2002</t>
   </si>
   <si>
     <t>Vivianho168@yahoo.com</t>
@@ -4386,7 +4383,7 @@
     <t>Andrea Jia</t>
   </si>
   <si>
-    <t>1/29/04</t>
+    <t>1/29/2004</t>
   </si>
   <si>
     <t>925-7899159</t>
@@ -4407,7 +4404,7 @@
     <t>Afra Ung</t>
   </si>
   <si>
-    <t>12/23/02</t>
+    <t>12/23/2002</t>
   </si>
   <si>
     <t>mhafra@yahoo.com</t>
@@ -4459,7 +4456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -4498,35 +4495,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top/>
@@ -4543,10 +4540,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4555,17 +4552,17 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom/>
@@ -4573,25 +4570,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4599,7 +4596,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4618,24 +4615,24 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4644,13 +4641,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4659,31 +4656,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4713,10 +4710,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4736,7 +4733,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4753,13 +4750,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4816,10 +4813,10 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4837,7 +4834,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4864,7 +4861,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4891,7 +4888,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4923,8 +4920,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff1155cc"/>
       <rgbColor rgb="ff9bbb59"/>
@@ -5067,7 +5064,13 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -5166,10 +5169,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -5424,7 +5427,13 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -5737,10 +5746,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -6461,7 +6470,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>4082425920</v>
       </c>
@@ -6843,7 +6852,7 @@
         <v>107</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="15">
         <v>5105522406</v>
       </c>
@@ -8337,7 +8346,7 @@
       <c r="C55" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="15">
         <v>5106681477</v>
       </c>
@@ -8463,7 +8472,7 @@
       <c r="C58" t="s" s="18">
         <v>76</v>
       </c>
-      <c r="D58" s="18"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="21">
         <v>3106637118</v>
       </c>
@@ -9479,7 +9488,7 @@
         <v>344</v>
       </c>
       <c r="C82" s="12"/>
-      <c r="D82" s="10"/>
+      <c r="D82" s="12"/>
       <c r="E82" s="15">
         <v>6504500784</v>
       </c>
@@ -13959,7 +13968,7 @@
       <c r="C186" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="D186" s="10"/>
+      <c r="D186" s="12"/>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
@@ -15879,7 +15888,7 @@
         <v>883</v>
       </c>
       <c r="C231" s="12"/>
-      <c r="D231" s="10"/>
+      <c r="D231" s="12"/>
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
       <c r="G231" s="12"/>
@@ -16041,7 +16050,7 @@
         <v>896</v>
       </c>
       <c r="C235" s="12"/>
-      <c r="D235" s="10"/>
+      <c r="D235" s="12"/>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
@@ -16075,7 +16084,7 @@
         <v>26</v>
       </c>
       <c r="C236" s="12"/>
-      <c r="D236" s="10"/>
+      <c r="D236" s="12"/>
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
       <c r="G236" s="12"/>
@@ -16413,7 +16422,7 @@
       <c r="C244" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="D244" s="10"/>
+      <c r="D244" s="12"/>
       <c r="E244" t="s" s="10">
         <v>922</v>
       </c>
@@ -16457,7 +16466,7 @@
       <c r="C245" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="D245" s="10"/>
+      <c r="D245" s="12"/>
       <c r="E245" s="15">
         <v>6692385558</v>
       </c>
@@ -17411,20 +17420,20 @@
         <v>510</v>
       </c>
       <c r="O267" t="s" s="47">
-        <v>994</v>
+        <v>511</v>
       </c>
       <c r="P267" s="48"/>
     </row>
     <row r="268" ht="13.65" customHeight="1">
       <c r="A268" s="24"/>
       <c r="B268" t="s" s="10">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C268" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D268" t="s" s="11">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E268" s="15">
         <v>4086237785</v>
@@ -17436,10 +17445,10 @@
         <v>395</v>
       </c>
       <c r="H268" t="s" s="10">
+        <v>996</v>
+      </c>
+      <c r="I268" t="s" s="10">
         <v>997</v>
-      </c>
-      <c r="I268" t="s" s="10">
-        <v>998</v>
       </c>
       <c r="J268" t="s" s="10">
         <v>80</v>
@@ -17457,20 +17466,20 @@
         <v>510</v>
       </c>
       <c r="O268" t="s" s="47">
-        <v>994</v>
+        <v>511</v>
       </c>
       <c r="P268" s="48"/>
     </row>
     <row r="269" ht="13.65" customHeight="1">
       <c r="A269" s="24"/>
       <c r="B269" t="s" s="10">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C269" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D269" t="s" s="11">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E269" s="15">
         <v>4083686417</v>
@@ -17482,7 +17491,7 @@
         <v>412</v>
       </c>
       <c r="H269" t="s" s="10">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I269" s="26"/>
       <c r="J269" t="s" s="10">
@@ -17501,20 +17510,20 @@
         <v>510</v>
       </c>
       <c r="O269" t="s" s="47">
-        <v>994</v>
+        <v>511</v>
       </c>
       <c r="P269" s="48"/>
     </row>
     <row r="270" ht="13.65" customHeight="1">
       <c r="A270" s="24"/>
       <c r="B270" t="s" s="10">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C270" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D270" t="s" s="11">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E270" s="15">
         <v>4088289939</v>
@@ -17524,10 +17533,10 @@
       </c>
       <c r="G270" s="12"/>
       <c r="H270" t="s" s="10">
+        <v>1003</v>
+      </c>
+      <c r="I270" t="s" s="10">
         <v>1004</v>
-      </c>
-      <c r="I270" t="s" s="10">
-        <v>1005</v>
       </c>
       <c r="J270" t="s" s="10">
         <v>80</v>
@@ -17545,20 +17554,20 @@
         <v>510</v>
       </c>
       <c r="O270" t="s" s="47">
-        <v>994</v>
+        <v>511</v>
       </c>
       <c r="P270" s="48"/>
     </row>
     <row r="271" ht="13.65" customHeight="1">
       <c r="A271" s="24"/>
       <c r="B271" t="s" s="10">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C271" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D271" t="s" s="11">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E271" s="15">
         <v>5104451078</v>
@@ -17568,10 +17577,10 @@
         <v>22</v>
       </c>
       <c r="H271" t="s" s="10">
+        <v>1007</v>
+      </c>
+      <c r="I271" t="s" s="10">
         <v>1008</v>
-      </c>
-      <c r="I271" t="s" s="10">
-        <v>1009</v>
       </c>
       <c r="J271" t="s" s="10">
         <v>80</v>
@@ -17589,20 +17598,20 @@
         <v>510</v>
       </c>
       <c r="O271" t="s" s="47">
-        <v>994</v>
+        <v>511</v>
       </c>
       <c r="P271" s="48"/>
     </row>
     <row r="272" ht="13.65" customHeight="1">
       <c r="A272" s="24"/>
       <c r="B272" t="s" s="10">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C272" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D272" t="s" s="11">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E272" s="15">
         <v>4152987558</v>
@@ -17614,7 +17623,7 @@
         <v>412</v>
       </c>
       <c r="H272" t="s" s="10">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I272" s="26"/>
       <c r="J272" t="s" s="10">
@@ -17633,20 +17642,20 @@
         <v>510</v>
       </c>
       <c r="O272" t="s" s="47">
-        <v>994</v>
+        <v>511</v>
       </c>
       <c r="P272" s="48"/>
     </row>
     <row r="273" ht="13.65" customHeight="1">
       <c r="A273" s="24"/>
       <c r="B273" t="s" s="10">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C273" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D273" t="s" s="11">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E273" s="15">
         <v>5107098829</v>
@@ -17656,7 +17665,7 @@
         <v>105</v>
       </c>
       <c r="H273" t="s" s="10">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I273" s="12"/>
       <c r="J273" t="s" s="10">
@@ -17675,20 +17684,20 @@
         <v>510</v>
       </c>
       <c r="O273" t="s" s="47">
-        <v>994</v>
+        <v>511</v>
       </c>
       <c r="P273" s="48"/>
     </row>
     <row r="274" ht="13.65" customHeight="1">
       <c r="A274" s="24"/>
       <c r="B274" t="s" s="10">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C274" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D274" t="s" s="11">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E274" s="15">
         <v>5105890468</v>
@@ -17696,7 +17705,7 @@
       <c r="F274" s="12"/>
       <c r="G274" s="12"/>
       <c r="H274" t="s" s="10">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I274" s="26"/>
       <c r="J274" t="s" s="10">
@@ -17722,11 +17731,11 @@
     <row r="275" ht="13.65" customHeight="1">
       <c r="A275" s="24"/>
       <c r="B275" t="s" s="10">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C275" s="12"/>
       <c r="D275" t="s" s="11">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E275" s="15">
         <v>4085504554</v>
@@ -17734,7 +17743,7 @@
       <c r="F275" s="12"/>
       <c r="G275" s="12"/>
       <c r="H275" t="s" s="10">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I275" s="12"/>
       <c r="J275" t="s" s="10">
@@ -17760,19 +17769,19 @@
     <row r="276" ht="13.65" customHeight="1">
       <c r="A276" s="24"/>
       <c r="B276" t="s" s="10">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C276" s="12"/>
       <c r="D276" t="s" s="11">
+        <v>1022</v>
+      </c>
+      <c r="E276" t="s" s="10">
         <v>1023</v>
-      </c>
-      <c r="E276" t="s" s="10">
-        <v>1024</v>
       </c>
       <c r="F276" s="12"/>
       <c r="G276" s="12"/>
       <c r="H276" t="s" s="16">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I276" s="12"/>
       <c r="J276" t="s" s="10">
@@ -17798,21 +17807,21 @@
     <row r="277" ht="13.65" customHeight="1">
       <c r="A277" s="24"/>
       <c r="B277" t="s" s="10">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C277" s="12"/>
       <c r="D277" t="s" s="11">
+        <v>1026</v>
+      </c>
+      <c r="E277" t="s" s="10">
         <v>1027</v>
-      </c>
-      <c r="E277" t="s" s="10">
-        <v>1028</v>
       </c>
       <c r="F277" s="12"/>
       <c r="G277" t="s" s="10">
+        <v>1028</v>
+      </c>
+      <c r="H277" t="s" s="16">
         <v>1029</v>
-      </c>
-      <c r="H277" t="s" s="16">
-        <v>1030</v>
       </c>
       <c r="I277" s="12"/>
       <c r="J277" t="s" s="10">
@@ -17838,11 +17847,11 @@
     <row r="278" ht="13.65" customHeight="1">
       <c r="A278" s="24"/>
       <c r="B278" t="s" s="18">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C278" s="19"/>
       <c r="D278" t="s" s="20">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E278" s="21">
         <v>4082508215</v>
@@ -17852,7 +17861,7 @@
         <v>100</v>
       </c>
       <c r="H278" t="s" s="43">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I278" s="19"/>
       <c r="J278" t="s" s="10">
@@ -17878,11 +17887,11 @@
     <row r="279" ht="13.65" customHeight="1">
       <c r="A279" s="24"/>
       <c r="B279" t="s" s="10">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" t="s" s="11">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E279" s="15">
         <v>6507992844</v>
@@ -17894,10 +17903,10 @@
         <v>22</v>
       </c>
       <c r="H279" t="s" s="16">
+        <v>1035</v>
+      </c>
+      <c r="I279" t="s" s="16">
         <v>1036</v>
-      </c>
-      <c r="I279" t="s" s="16">
-        <v>1037</v>
       </c>
       <c r="J279" t="s" s="10">
         <v>80</v>
@@ -17922,13 +17931,13 @@
     <row r="280" ht="13.65" customHeight="1">
       <c r="A280" s="24"/>
       <c r="B280" t="s" s="10">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C280" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D280" t="s" s="11">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E280" s="15">
         <v>4083916683</v>
@@ -17938,10 +17947,10 @@
       </c>
       <c r="G280" s="12"/>
       <c r="H280" t="s" s="10">
+        <v>1039</v>
+      </c>
+      <c r="I280" t="s" s="10">
         <v>1040</v>
-      </c>
-      <c r="I280" t="s" s="10">
-        <v>1041</v>
       </c>
       <c r="J280" t="s" s="10">
         <v>80</v>
@@ -17966,11 +17975,11 @@
     <row r="281" ht="13.65" customHeight="1">
       <c r="A281" s="24"/>
       <c r="B281" t="s" s="10">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" t="s" s="11">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E281" s="15">
         <v>6309153686</v>
@@ -17979,13 +17988,13 @@
         <v>6309153593</v>
       </c>
       <c r="G281" t="s" s="10">
+        <v>1043</v>
+      </c>
+      <c r="H281" t="s" s="16">
         <v>1044</v>
       </c>
-      <c r="H281" t="s" s="16">
+      <c r="I281" t="s" s="16">
         <v>1045</v>
-      </c>
-      <c r="I281" t="s" s="16">
-        <v>1046</v>
       </c>
       <c r="J281" t="s" s="10">
         <v>80</v>
@@ -18010,11 +18019,11 @@
     <row r="282" ht="13.65" customHeight="1">
       <c r="A282" s="24"/>
       <c r="B282" t="s" s="10">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C282" s="12"/>
       <c r="D282" t="s" s="11">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E282" s="15">
         <v>6124819444</v>
@@ -18024,7 +18033,7 @@
       </c>
       <c r="G282" s="12"/>
       <c r="H282" t="s" s="10">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I282" s="12"/>
       <c r="J282" t="s" s="10">
@@ -18050,11 +18059,11 @@
     <row r="283" ht="13.65" customHeight="1">
       <c r="A283" s="24"/>
       <c r="B283" t="s" s="10">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C283" s="12"/>
       <c r="D283" t="s" s="11">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E283" s="15">
         <v>6122292080</v>
@@ -18064,10 +18073,10 @@
       </c>
       <c r="G283" s="12"/>
       <c r="H283" t="s" s="10">
+        <v>1051</v>
+      </c>
+      <c r="I283" t="s" s="10">
         <v>1052</v>
-      </c>
-      <c r="I283" t="s" s="10">
-        <v>1053</v>
       </c>
       <c r="J283" t="s" s="10">
         <v>80</v>
@@ -18092,13 +18101,13 @@
     <row r="284" ht="13.65" customHeight="1">
       <c r="A284" s="24"/>
       <c r="B284" t="s" s="10">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C284" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D284" t="s" s="11">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E284" s="15">
         <v>5103865681</v>
@@ -18110,7 +18119,7 @@
         <v>22</v>
       </c>
       <c r="H284" t="s" s="10">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I284" s="12"/>
       <c r="J284" t="s" s="10">
@@ -18129,18 +18138,18 @@
         <v>591</v>
       </c>
       <c r="O284" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P284" s="4"/>
     </row>
     <row r="285" ht="13.65" customHeight="1">
       <c r="A285" s="24"/>
       <c r="B285" t="s" s="10">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C285" s="12"/>
       <c r="D285" t="s" s="11">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E285" s="15">
         <v>5103841939</v>
@@ -18148,7 +18157,7 @@
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
       <c r="H285" t="s" s="16">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I285" s="12"/>
       <c r="J285" t="s" s="10">
@@ -18167,20 +18176,20 @@
         <v>591</v>
       </c>
       <c r="O285" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P285" s="4"/>
     </row>
     <row r="286" ht="13.65" customHeight="1">
       <c r="A286" s="24"/>
       <c r="B286" t="s" s="18">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C286" t="s" s="18">
         <v>76</v>
       </c>
       <c r="D286" t="s" s="20">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E286" s="21">
         <v>4085681259</v>
@@ -18190,7 +18199,7 @@
         <v>22</v>
       </c>
       <c r="H286" t="s" s="18">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I286" s="19"/>
       <c r="J286" t="s" s="10">
@@ -18209,30 +18218,30 @@
         <v>591</v>
       </c>
       <c r="O286" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P286" s="4"/>
     </row>
     <row r="287" ht="13.65" customHeight="1">
       <c r="A287" s="24"/>
       <c r="B287" t="s" s="10">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C287" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D287" t="s" s="11">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E287" s="15">
         <v>7577844334</v>
       </c>
       <c r="F287" s="12"/>
       <c r="G287" t="s" s="10">
+        <v>1065</v>
+      </c>
+      <c r="H287" t="s" s="10">
         <v>1066</v>
-      </c>
-      <c r="H287" t="s" s="10">
-        <v>1067</v>
       </c>
       <c r="I287" s="12"/>
       <c r="J287" t="s" s="10">
@@ -18251,20 +18260,20 @@
         <v>591</v>
       </c>
       <c r="O287" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P287" s="4"/>
     </row>
     <row r="288" ht="13.65" customHeight="1">
       <c r="A288" s="24"/>
       <c r="B288" t="s" s="10">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C288" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D288" t="s" s="11">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E288" s="15">
         <v>5107016360</v>
@@ -18272,7 +18281,7 @@
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
       <c r="H288" t="s" s="10">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I288" s="12"/>
       <c r="J288" t="s" s="10">
@@ -18298,13 +18307,13 @@
     <row r="289" ht="13.65" customHeight="1">
       <c r="A289" s="24"/>
       <c r="B289" t="s" s="10">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C289" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D289" t="s" s="11">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E289" s="15">
         <v>4083739132</v>
@@ -18314,7 +18323,7 @@
         <v>276</v>
       </c>
       <c r="H289" t="s" s="10">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I289" s="26"/>
       <c r="J289" t="s" s="10">
@@ -18340,13 +18349,13 @@
     <row r="290" ht="13.65" customHeight="1">
       <c r="A290" s="24"/>
       <c r="B290" t="s" s="10">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C290" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D290" t="s" s="11">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E290" s="15">
         <v>5109962763</v>
@@ -18356,7 +18365,7 @@
         <v>105</v>
       </c>
       <c r="H290" t="s" s="10">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I290" s="26"/>
       <c r="J290" t="s" s="10">
@@ -18382,7 +18391,7 @@
     <row r="291" ht="13.65" customHeight="1">
       <c r="A291" s="24"/>
       <c r="B291" t="s" s="10">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C291" s="12"/>
       <c r="D291" t="s" s="11">
@@ -18396,7 +18405,7 @@
         <v>282</v>
       </c>
       <c r="H291" t="s" s="16">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I291" s="12"/>
       <c r="J291" t="s" s="10">
@@ -18422,11 +18431,11 @@
     <row r="292" ht="13.65" customHeight="1">
       <c r="A292" s="24"/>
       <c r="B292" t="s" s="10">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C292" s="12"/>
       <c r="D292" t="s" s="11">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E292" s="12">
         <v>4259456719</v>
@@ -18438,10 +18447,10 @@
         <v>282</v>
       </c>
       <c r="H292" t="s" s="10">
+        <v>1080</v>
+      </c>
+      <c r="I292" t="s" s="10">
         <v>1081</v>
-      </c>
-      <c r="I292" t="s" s="10">
-        <v>1082</v>
       </c>
       <c r="J292" t="s" s="10">
         <v>80</v>
@@ -18466,13 +18475,13 @@
     <row r="293" ht="13.65" customHeight="1">
       <c r="A293" s="24"/>
       <c r="B293" t="s" s="10">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C293" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D293" t="s" s="10">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E293" s="15">
         <v>5105527271</v>
@@ -18480,7 +18489,7 @@
       <c r="F293" s="12"/>
       <c r="G293" s="12"/>
       <c r="H293" t="s" s="10">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I293" s="12"/>
       <c r="J293" t="s" s="10">
@@ -18506,11 +18515,11 @@
     <row r="294" ht="13.65" customHeight="1">
       <c r="A294" s="24"/>
       <c r="B294" t="s" s="10">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C294" s="12"/>
       <c r="D294" t="s" s="11">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E294" s="15">
         <v>7735121380</v>
@@ -18518,7 +18527,7 @@
       <c r="F294" s="12"/>
       <c r="G294" s="12"/>
       <c r="H294" t="s" s="16">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I294" s="12"/>
       <c r="J294" t="s" s="10">
@@ -18544,13 +18553,13 @@
     <row r="295" ht="13.65" customHeight="1">
       <c r="A295" s="24"/>
       <c r="B295" t="s" s="10">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C295" t="s" s="10">
         <v>19</v>
       </c>
       <c r="D295" t="s" s="11">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E295" s="15">
         <v>9513126989</v>
@@ -18558,7 +18567,7 @@
       <c r="F295" s="12"/>
       <c r="G295" s="12"/>
       <c r="H295" t="s" s="10">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I295" s="12"/>
       <c r="J295" t="s" s="10">
@@ -18584,13 +18593,13 @@
     <row r="296" ht="13.65" customHeight="1">
       <c r="A296" s="24"/>
       <c r="B296" t="s" s="10">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C296" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D296" t="s" s="11">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E296" s="15">
         <v>8583663970</v>
@@ -18598,7 +18607,7 @@
       <c r="F296" s="12"/>
       <c r="G296" s="12"/>
       <c r="H296" t="s" s="10">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I296" s="12"/>
       <c r="J296" t="s" s="10">
@@ -18624,13 +18633,13 @@
     <row r="297" ht="13.65" customHeight="1">
       <c r="A297" s="24"/>
       <c r="B297" t="s" s="10">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C297" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D297" t="s" s="11">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E297" s="15">
         <v>5184799396</v>
@@ -18639,13 +18648,13 @@
         <v>4089212395</v>
       </c>
       <c r="G297" t="s" s="10">
+        <v>1096</v>
+      </c>
+      <c r="H297" t="s" s="10">
         <v>1097</v>
       </c>
-      <c r="H297" t="s" s="10">
+      <c r="I297" t="s" s="10">
         <v>1098</v>
-      </c>
-      <c r="I297" t="s" s="10">
-        <v>1099</v>
       </c>
       <c r="J297" t="s" s="10">
         <v>80</v>
@@ -18670,11 +18679,11 @@
     <row r="298" ht="13.65" customHeight="1">
       <c r="A298" s="24"/>
       <c r="B298" t="s" s="10">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C298" s="12"/>
       <c r="D298" t="s" s="11">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E298" s="15">
         <v>5104024709</v>
@@ -18682,7 +18691,7 @@
       <c r="F298" s="12"/>
       <c r="G298" s="12"/>
       <c r="H298" t="s" s="16">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I298" s="12"/>
       <c r="J298" t="s" s="10">
@@ -18708,26 +18717,26 @@
     <row r="299" ht="13.65" customHeight="1">
       <c r="A299" s="24"/>
       <c r="B299" t="s" s="10">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C299" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D299" t="s" s="11">
+        <v>1103</v>
+      </c>
+      <c r="E299" t="s" s="10">
         <v>1104</v>
       </c>
-      <c r="E299" t="s" s="10">
+      <c r="F299" t="s" s="10">
         <v>1105</v>
-      </c>
-      <c r="F299" t="s" s="10">
-        <v>1106</v>
       </c>
       <c r="G299" s="12"/>
       <c r="H299" t="s" s="16">
+        <v>1106</v>
+      </c>
+      <c r="I299" t="s" s="16">
         <v>1107</v>
-      </c>
-      <c r="I299" t="s" s="16">
-        <v>1108</v>
       </c>
       <c r="J299" t="s" s="10">
         <v>80</v>
@@ -18752,7 +18761,7 @@
     <row r="300" ht="13.65" customHeight="1">
       <c r="A300" s="24"/>
       <c r="B300" t="s" s="18">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C300" s="19"/>
       <c r="D300" t="s" s="20">
@@ -18764,7 +18773,7 @@
       <c r="F300" s="19"/>
       <c r="G300" s="19"/>
       <c r="H300" t="s" s="22">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I300" s="19"/>
       <c r="J300" t="s" s="10">
@@ -18790,13 +18799,13 @@
     <row r="301" ht="13.65" customHeight="1">
       <c r="A301" s="24"/>
       <c r="B301" t="s" s="10">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C301" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D301" t="s" s="11">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E301" s="15">
         <v>0</v>
@@ -18806,7 +18815,7 @@
         <v>22</v>
       </c>
       <c r="H301" t="s" s="10">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I301" s="12"/>
       <c r="J301" t="s" s="10">
@@ -18822,7 +18831,7 @@
         <v>993</v>
       </c>
       <c r="N301" t="s" s="31">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O301" t="s" s="32">
         <v>537</v>
@@ -18832,13 +18841,13 @@
     <row r="302" ht="13.65" customHeight="1">
       <c r="A302" s="24"/>
       <c r="B302" t="s" s="10">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C302" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D302" t="s" s="11">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E302" s="15">
         <v>4088231081</v>
@@ -18850,10 +18859,10 @@
         <v>22</v>
       </c>
       <c r="H302" t="s" s="10">
+        <v>1116</v>
+      </c>
+      <c r="I302" t="s" s="10">
         <v>1117</v>
-      </c>
-      <c r="I302" t="s" s="10">
-        <v>1118</v>
       </c>
       <c r="J302" t="s" s="10">
         <v>53</v>
@@ -18868,7 +18877,7 @@
         <v>993</v>
       </c>
       <c r="N302" t="s" s="31">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O302" t="s" s="32">
         <v>537</v>
@@ -18878,13 +18887,13 @@
     <row r="303" ht="13.65" customHeight="1">
       <c r="A303" s="24"/>
       <c r="B303" t="s" s="10">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C303" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D303" t="s" s="11">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E303" s="15">
         <v>4088289939</v>
@@ -18896,10 +18905,10 @@
         <v>361</v>
       </c>
       <c r="H303" t="s" s="10">
+        <v>1003</v>
+      </c>
+      <c r="I303" t="s" s="10">
         <v>1004</v>
-      </c>
-      <c r="I303" t="s" s="10">
-        <v>1005</v>
       </c>
       <c r="J303" t="s" s="10">
         <v>53</v>
@@ -18914,7 +18923,7 @@
         <v>993</v>
       </c>
       <c r="N303" t="s" s="31">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O303" t="s" s="32">
         <v>537</v>
@@ -18924,13 +18933,13 @@
     <row r="304" ht="13.65" customHeight="1">
       <c r="A304" s="24"/>
       <c r="B304" t="s" s="10">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C304" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D304" t="s" s="11">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E304" s="15">
         <v>9137356209</v>
@@ -18956,7 +18965,7 @@
         <v>993</v>
       </c>
       <c r="N304" t="s" s="31">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O304" t="s" s="32">
         <v>537</v>
@@ -18966,26 +18975,26 @@
     <row r="305" ht="13.65" customHeight="1">
       <c r="A305" s="24"/>
       <c r="B305" t="s" s="10">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C305" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D305" t="s" s="11">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E305" s="15">
         <v>4083065666</v>
       </c>
       <c r="F305" s="12"/>
       <c r="G305" t="s" s="10">
+        <v>1124</v>
+      </c>
+      <c r="H305" t="s" s="10">
         <v>1125</v>
       </c>
-      <c r="H305" t="s" s="10">
+      <c r="I305" t="s" s="10">
         <v>1126</v>
-      </c>
-      <c r="I305" t="s" s="10">
-        <v>1127</v>
       </c>
       <c r="J305" t="s" s="10">
         <v>53</v>
@@ -19000,7 +19009,7 @@
         <v>993</v>
       </c>
       <c r="N305" t="s" s="31">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O305" t="s" s="32">
         <v>537</v>
@@ -19010,13 +19019,13 @@
     <row r="306" ht="13.65" customHeight="1">
       <c r="A306" s="24"/>
       <c r="B306" t="s" s="10">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C306" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D306" t="s" s="11">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E306" s="15">
         <v>4152987558</v>
@@ -19028,10 +19037,10 @@
         <v>412</v>
       </c>
       <c r="H306" t="s" s="10">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I306" t="s" s="10">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J306" t="s" s="10">
         <v>53</v>
@@ -19046,7 +19055,7 @@
         <v>993</v>
       </c>
       <c r="N306" t="s" s="31">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O306" t="s" s="32">
         <v>537</v>
@@ -19056,23 +19065,23 @@
     <row r="307" ht="13.65" customHeight="1">
       <c r="A307" s="24"/>
       <c r="B307" t="s" s="10">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C307" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D307" t="s" s="11">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E307" s="15">
         <v>4086674657</v>
       </c>
       <c r="F307" s="12"/>
       <c r="G307" t="s" s="10">
+        <v>1132</v>
+      </c>
+      <c r="H307" t="s" s="10">
         <v>1133</v>
-      </c>
-      <c r="H307" t="s" s="10">
-        <v>1134</v>
       </c>
       <c r="I307" s="12"/>
       <c r="J307" t="s" s="10">
@@ -19088,7 +19097,7 @@
         <v>993</v>
       </c>
       <c r="N307" t="s" s="31">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O307" t="s" s="32">
         <v>537</v>
@@ -19098,13 +19107,13 @@
     <row r="308" ht="13.65" customHeight="1">
       <c r="A308" s="24"/>
       <c r="B308" t="s" s="10">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C308" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D308" t="s" s="11">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E308" s="15">
         <v>5107098829</v>
@@ -19114,7 +19123,7 @@
         <v>105</v>
       </c>
       <c r="H308" t="s" s="10">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I308" s="12"/>
       <c r="J308" t="s" s="10">
@@ -19130,7 +19139,7 @@
         <v>993</v>
       </c>
       <c r="N308" t="s" s="31">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O308" t="s" s="32">
         <v>537</v>
@@ -19140,13 +19149,13 @@
     <row r="309" ht="13.65" customHeight="1">
       <c r="A309" s="24"/>
       <c r="B309" t="s" s="10">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C309" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D309" t="s" s="11">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E309" s="15">
         <v>4088380791</v>
@@ -19179,30 +19188,30 @@
         <v>671</v>
       </c>
       <c r="O309" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P309" s="4"/>
     </row>
     <row r="310" ht="13.65" customHeight="1">
       <c r="A310" s="24"/>
       <c r="B310" t="s" s="10">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C310" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D310" t="s" s="11">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E310" s="12"/>
       <c r="F310" s="15">
         <v>9253145419</v>
       </c>
       <c r="G310" t="s" s="10">
+        <v>1141</v>
+      </c>
+      <c r="H310" t="s" s="10">
         <v>1142</v>
-      </c>
-      <c r="H310" t="s" s="10">
-        <v>1143</v>
       </c>
       <c r="I310" s="12"/>
       <c r="J310" t="s" s="10">
@@ -19221,30 +19230,30 @@
         <v>671</v>
       </c>
       <c r="O310" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P310" s="4"/>
     </row>
     <row r="311" ht="13.65" customHeight="1">
       <c r="A311" s="24"/>
       <c r="B311" t="s" s="10">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C311" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D311" t="s" s="11">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E311" s="12"/>
       <c r="F311" s="15">
         <v>4082393573</v>
       </c>
       <c r="G311" t="s" s="10">
+        <v>1145</v>
+      </c>
+      <c r="H311" t="s" s="10">
         <v>1146</v>
-      </c>
-      <c r="H311" t="s" s="10">
-        <v>1147</v>
       </c>
       <c r="I311" s="12"/>
       <c r="J311" t="s" s="10">
@@ -19263,30 +19272,30 @@
         <v>671</v>
       </c>
       <c r="O311" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P311" s="4"/>
     </row>
     <row r="312" ht="13.65" customHeight="1">
       <c r="A312" s="24"/>
       <c r="B312" t="s" s="10">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C312" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D312" t="s" s="11">
+        <v>1148</v>
+      </c>
+      <c r="E312" t="s" s="10">
         <v>1149</v>
-      </c>
-      <c r="E312" t="s" s="10">
-        <v>1150</v>
       </c>
       <c r="F312" s="12"/>
       <c r="G312" t="s" s="10">
+        <v>1150</v>
+      </c>
+      <c r="H312" t="s" s="10">
         <v>1151</v>
-      </c>
-      <c r="H312" t="s" s="10">
-        <v>1152</v>
       </c>
       <c r="I312" s="12"/>
       <c r="J312" t="s" s="10">
@@ -19305,20 +19314,20 @@
         <v>671</v>
       </c>
       <c r="O312" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P312" s="4"/>
     </row>
     <row r="313" ht="13.65" customHeight="1">
       <c r="A313" s="24"/>
       <c r="B313" t="s" s="10">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C313" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D313" t="s" s="11">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E313" s="15">
         <v>6504838336</v>
@@ -19330,10 +19339,10 @@
         <v>315</v>
       </c>
       <c r="H313" t="s" s="10">
+        <v>1154</v>
+      </c>
+      <c r="I313" t="s" s="10">
         <v>1155</v>
-      </c>
-      <c r="I313" t="s" s="10">
-        <v>1156</v>
       </c>
       <c r="J313" t="s" s="10">
         <v>53</v>
@@ -19351,20 +19360,20 @@
         <v>671</v>
       </c>
       <c r="O313" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P313" s="4"/>
     </row>
     <row r="314" ht="13.65" customHeight="1">
       <c r="A314" s="24"/>
       <c r="B314" t="s" s="10">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C314" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D314" t="s" s="11">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E314" s="15">
         <v>5107096860</v>
@@ -19374,7 +19383,7 @@
         <v>45</v>
       </c>
       <c r="H314" t="s" s="10">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I314" s="12"/>
       <c r="J314" t="s" s="10">
@@ -19393,14 +19402,14 @@
         <v>671</v>
       </c>
       <c r="O314" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P314" s="4"/>
     </row>
     <row r="315" ht="13.65" customHeight="1">
       <c r="A315" s="24"/>
       <c r="B315" t="s" s="10">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C315" s="12"/>
       <c r="D315" t="s" s="11">
@@ -19416,10 +19425,10 @@
         <v>412</v>
       </c>
       <c r="H315" t="s" s="10">
+        <v>1160</v>
+      </c>
+      <c r="I315" t="s" s="10">
         <v>1161</v>
-      </c>
-      <c r="I315" t="s" s="10">
-        <v>1162</v>
       </c>
       <c r="J315" t="s" s="10">
         <v>53</v>
@@ -19437,14 +19446,14 @@
         <v>671</v>
       </c>
       <c r="O315" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P315" s="4"/>
     </row>
     <row r="316" ht="13.65" customHeight="1">
       <c r="A316" s="24"/>
       <c r="B316" t="s" s="10">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C316" t="s" s="10">
         <v>76</v>
@@ -19460,7 +19469,7 @@
         <v>395</v>
       </c>
       <c r="H316" t="s" s="10">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I316" s="12"/>
       <c r="J316" t="s" s="10">
@@ -19479,33 +19488,33 @@
         <v>671</v>
       </c>
       <c r="O316" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P316" s="4"/>
     </row>
     <row r="317" ht="13.65" customHeight="1">
       <c r="A317" s="24"/>
       <c r="B317" t="s" s="10">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C317" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D317" t="s" s="11">
+        <v>1164</v>
+      </c>
+      <c r="E317" t="s" s="10">
         <v>1165</v>
       </c>
-      <c r="E317" t="s" s="10">
+      <c r="F317" t="s" s="10">
         <v>1166</v>
-      </c>
-      <c r="F317" t="s" s="10">
-        <v>1167</v>
       </c>
       <c r="G317" s="12"/>
       <c r="H317" t="s" s="10">
+        <v>1167</v>
+      </c>
+      <c r="I317" t="s" s="10">
         <v>1168</v>
-      </c>
-      <c r="I317" t="s" s="10">
-        <v>1169</v>
       </c>
       <c r="J317" t="s" s="10">
         <v>53</v>
@@ -19523,20 +19532,20 @@
         <v>671</v>
       </c>
       <c r="O317" t="s" s="32">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P317" s="4"/>
     </row>
     <row r="318" ht="13.65" customHeight="1">
       <c r="A318" s="24"/>
       <c r="B318" t="s" s="10">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C318" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D318" t="s" s="11">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E318" s="15">
         <v>4086210547</v>
@@ -19548,10 +19557,10 @@
         <v>282</v>
       </c>
       <c r="H318" t="s" s="10">
+        <v>1171</v>
+      </c>
+      <c r="I318" t="s" s="10">
         <v>1172</v>
-      </c>
-      <c r="I318" t="s" s="10">
-        <v>1173</v>
       </c>
       <c r="J318" t="s" s="10">
         <v>53</v>
@@ -19569,30 +19578,30 @@
         <v>591</v>
       </c>
       <c r="O318" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P318" s="4"/>
     </row>
     <row r="319" ht="13.65" customHeight="1">
       <c r="A319" s="24"/>
       <c r="B319" t="s" s="10">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C319" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D319" t="s" s="11">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E319" s="12"/>
       <c r="F319" s="15">
         <v>4089313861</v>
       </c>
       <c r="G319" t="s" s="10">
+        <v>1175</v>
+      </c>
+      <c r="H319" t="s" s="10">
         <v>1176</v>
-      </c>
-      <c r="H319" t="s" s="10">
-        <v>1177</v>
       </c>
       <c r="I319" s="12"/>
       <c r="J319" t="s" s="10">
@@ -19611,20 +19620,20 @@
         <v>591</v>
       </c>
       <c r="O319" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P319" s="4"/>
     </row>
     <row r="320" ht="13.65" customHeight="1">
       <c r="A320" s="24"/>
       <c r="B320" t="s" s="10">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C320" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D320" t="s" s="11">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E320" s="15">
         <v>5103968055</v>
@@ -19636,10 +19645,10 @@
         <v>196</v>
       </c>
       <c r="H320" t="s" s="10">
+        <v>1179</v>
+      </c>
+      <c r="I320" t="s" s="10">
         <v>1180</v>
-      </c>
-      <c r="I320" t="s" s="10">
-        <v>1181</v>
       </c>
       <c r="J320" t="s" s="10">
         <v>53</v>
@@ -19657,14 +19666,14 @@
         <v>591</v>
       </c>
       <c r="O320" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P320" s="4"/>
     </row>
     <row r="321" ht="13.65" customHeight="1">
       <c r="A321" s="24"/>
       <c r="B321" t="s" s="10">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C321" t="s" s="10">
         <v>85</v>
@@ -19682,10 +19691,10 @@
         <v>22</v>
       </c>
       <c r="H321" t="s" s="10">
+        <v>1182</v>
+      </c>
+      <c r="I321" t="s" s="10">
         <v>1183</v>
-      </c>
-      <c r="I321" t="s" s="10">
-        <v>1184</v>
       </c>
       <c r="J321" t="s" s="10">
         <v>53</v>
@@ -19703,30 +19712,30 @@
         <v>591</v>
       </c>
       <c r="O321" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P321" s="4"/>
     </row>
     <row r="322" ht="13.65" customHeight="1">
       <c r="A322" s="24"/>
       <c r="B322" t="s" s="10">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C322" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D322" t="s" s="11">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E322" s="15">
         <v>5103962288</v>
       </c>
       <c r="F322" s="12"/>
       <c r="G322" t="s" s="10">
+        <v>1186</v>
+      </c>
+      <c r="H322" t="s" s="10">
         <v>1187</v>
-      </c>
-      <c r="H322" t="s" s="10">
-        <v>1188</v>
       </c>
       <c r="I322" s="12"/>
       <c r="J322" t="s" s="10">
@@ -19745,20 +19754,20 @@
         <v>591</v>
       </c>
       <c r="O322" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P322" s="4"/>
     </row>
     <row r="323" ht="13.65" customHeight="1">
       <c r="A323" s="24"/>
       <c r="B323" t="s" s="10">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C323" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D323" t="s" s="11">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E323" s="15">
         <v>4088322819</v>
@@ -19767,13 +19776,13 @@
         <v>4084695288</v>
       </c>
       <c r="G323" t="s" s="10">
+        <v>1190</v>
+      </c>
+      <c r="H323" t="s" s="10">
         <v>1191</v>
       </c>
-      <c r="H323" t="s" s="10">
+      <c r="I323" t="s" s="10">
         <v>1192</v>
-      </c>
-      <c r="I323" t="s" s="10">
-        <v>1193</v>
       </c>
       <c r="J323" t="s" s="10">
         <v>53</v>
@@ -19791,20 +19800,20 @@
         <v>591</v>
       </c>
       <c r="O323" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P323" s="4"/>
     </row>
     <row r="324" ht="13.65" customHeight="1">
       <c r="A324" s="24"/>
       <c r="B324" t="s" s="10">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C324" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D324" t="s" s="11">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E324" s="15">
         <v>4088322819</v>
@@ -19813,13 +19822,13 @@
         <v>4084695288</v>
       </c>
       <c r="G324" t="s" s="10">
+        <v>1190</v>
+      </c>
+      <c r="H324" t="s" s="10">
         <v>1191</v>
       </c>
-      <c r="H324" t="s" s="10">
+      <c r="I324" t="s" s="10">
         <v>1192</v>
-      </c>
-      <c r="I324" t="s" s="10">
-        <v>1193</v>
       </c>
       <c r="J324" t="s" s="10">
         <v>53</v>
@@ -19837,20 +19846,20 @@
         <v>591</v>
       </c>
       <c r="O324" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P324" s="4"/>
     </row>
     <row r="325" ht="13.65" customHeight="1">
       <c r="A325" s="24"/>
       <c r="B325" t="s" s="10">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C325" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D325" t="s" s="11">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E325" s="15">
         <v>5102662245</v>
@@ -19862,10 +19871,10 @@
         <v>45</v>
       </c>
       <c r="H325" t="s" s="10">
+        <v>1196</v>
+      </c>
+      <c r="I325" t="s" s="10">
         <v>1197</v>
-      </c>
-      <c r="I325" t="s" s="10">
-        <v>1198</v>
       </c>
       <c r="J325" t="s" s="10">
         <v>53</v>
@@ -19880,23 +19889,23 @@
         <v>993</v>
       </c>
       <c r="N325" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O325" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P325" s="4"/>
     </row>
     <row r="326" ht="13.65" customHeight="1">
       <c r="A326" s="24"/>
       <c r="B326" t="s" s="10">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C326" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D326" t="s" s="11">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E326" s="15">
         <v>3023537806</v>
@@ -19908,10 +19917,10 @@
         <v>412</v>
       </c>
       <c r="H326" t="s" s="10">
+        <v>1201</v>
+      </c>
+      <c r="I326" t="s" s="10">
         <v>1202</v>
-      </c>
-      <c r="I326" t="s" s="10">
-        <v>1203</v>
       </c>
       <c r="J326" t="s" s="10">
         <v>53</v>
@@ -19926,23 +19935,23 @@
         <v>993</v>
       </c>
       <c r="N326" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O326" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P326" s="4"/>
     </row>
     <row r="327" ht="13.65" customHeight="1">
       <c r="A327" s="24"/>
       <c r="B327" t="s" s="10">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C327" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D327" t="s" s="11">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E327" s="15">
         <v>4083755372</v>
@@ -19954,7 +19963,7 @@
         <v>276</v>
       </c>
       <c r="H327" t="s" s="10">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I327" s="12"/>
       <c r="J327" t="s" s="10">
@@ -19970,23 +19979,23 @@
         <v>993</v>
       </c>
       <c r="N327" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O327" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P327" s="4"/>
     </row>
     <row r="328" ht="13.65" customHeight="1">
       <c r="A328" s="24"/>
       <c r="B328" t="s" s="10">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C328" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D328" t="s" s="11">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E328" s="15">
         <v>4085681259</v>
@@ -19996,7 +20005,7 @@
         <v>196</v>
       </c>
       <c r="H328" t="s" s="10">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I328" s="12"/>
       <c r="J328" t="s" s="10">
@@ -20012,33 +20021,33 @@
         <v>993</v>
       </c>
       <c r="N328" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O328" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P328" s="4"/>
     </row>
     <row r="329" ht="13.65" customHeight="1">
       <c r="A329" s="24"/>
       <c r="B329" t="s" s="10">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C329" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D329" t="s" s="11">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E329" s="15">
         <v>5103962288</v>
       </c>
       <c r="F329" s="12"/>
       <c r="G329" t="s" s="10">
+        <v>1186</v>
+      </c>
+      <c r="H329" t="s" s="10">
         <v>1187</v>
-      </c>
-      <c r="H329" t="s" s="10">
-        <v>1188</v>
       </c>
       <c r="I329" s="12"/>
       <c r="J329" t="s" s="10">
@@ -20054,23 +20063,23 @@
         <v>993</v>
       </c>
       <c r="N329" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O329" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P329" s="4"/>
     </row>
     <row r="330" ht="13.65" customHeight="1">
       <c r="A330" s="24"/>
       <c r="B330" t="s" s="10">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C330" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D330" t="s" s="11">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E330" s="15">
         <v>4083755372</v>
@@ -20082,7 +20091,7 @@
         <v>276</v>
       </c>
       <c r="H330" t="s" s="10">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I330" s="12"/>
       <c r="J330" t="s" s="10">
@@ -20098,17 +20107,17 @@
         <v>993</v>
       </c>
       <c r="N330" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O330" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P330" s="4"/>
     </row>
     <row r="331" ht="13.65" customHeight="1">
       <c r="A331" s="24"/>
       <c r="B331" t="s" s="10">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C331" s="12"/>
       <c r="D331" t="s" s="11">
@@ -20121,13 +20130,13 @@
         <v>7077063535</v>
       </c>
       <c r="G331" t="s" s="10">
+        <v>1213</v>
+      </c>
+      <c r="H331" t="s" s="16">
         <v>1214</v>
       </c>
-      <c r="H331" t="s" s="16">
+      <c r="I331" t="s" s="16">
         <v>1215</v>
-      </c>
-      <c r="I331" t="s" s="16">
-        <v>1216</v>
       </c>
       <c r="J331" t="s" s="10">
         <v>53</v>
@@ -20142,35 +20151,35 @@
         <v>993</v>
       </c>
       <c r="N331" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O331" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P331" s="4"/>
     </row>
     <row r="332" ht="13.65" customHeight="1">
       <c r="A332" s="24"/>
       <c r="B332" t="s" s="10">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C332" s="12"/>
       <c r="D332" t="s" s="11">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E332" s="15">
         <v>4085807186</v>
       </c>
       <c r="F332" s="12"/>
       <c r="G332" t="s" s="10">
+        <v>1218</v>
+      </c>
+      <c r="H332" t="s" s="10">
         <v>1219</v>
-      </c>
-      <c r="H332" t="s" s="10">
-        <v>1220</v>
       </c>
       <c r="I332" s="12"/>
       <c r="J332" t="s" s="10">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K332" t="s" s="10">
         <v>25</v>
@@ -20182,23 +20191,23 @@
         <v>993</v>
       </c>
       <c r="N332" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O332" t="s" s="32">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P332" s="4"/>
     </row>
     <row r="333" ht="13.65" customHeight="1">
       <c r="A333" s="24"/>
       <c r="B333" t="s" s="10">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C333" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D333" t="s" s="11">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E333" s="15">
         <v>5103646516</v>
@@ -20208,7 +20217,7 @@
         <v>282</v>
       </c>
       <c r="H333" t="s" s="10">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I333" s="26"/>
       <c r="J333" t="s" s="10">
@@ -20227,20 +20236,20 @@
         <v>623</v>
       </c>
       <c r="O333" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P333" s="4"/>
     </row>
     <row r="334" ht="13.65" customHeight="1">
       <c r="A334" s="24"/>
       <c r="B334" t="s" s="10">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C334" t="s" s="10">
         <v>19</v>
       </c>
       <c r="D334" t="s" s="11">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E334" s="15">
         <v>4158232039</v>
@@ -20252,7 +20261,7 @@
         <v>315</v>
       </c>
       <c r="H334" t="s" s="10">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I334" s="12"/>
       <c r="J334" t="s" s="10">
@@ -20271,28 +20280,28 @@
         <v>623</v>
       </c>
       <c r="O334" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P334" s="4"/>
     </row>
     <row r="335" ht="13.65" customHeight="1">
       <c r="A335" s="24"/>
       <c r="B335" t="s" s="10">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C335" s="12"/>
       <c r="D335" t="s" s="11">
+        <v>1229</v>
+      </c>
+      <c r="E335" t="s" s="10">
         <v>1230</v>
-      </c>
-      <c r="E335" t="s" s="10">
-        <v>1231</v>
       </c>
       <c r="F335" s="12"/>
       <c r="G335" t="s" s="10">
         <v>196</v>
       </c>
       <c r="H335" t="s" s="16">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I335" s="12"/>
       <c r="J335" t="s" s="10">
@@ -20311,18 +20320,18 @@
         <v>623</v>
       </c>
       <c r="O335" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P335" s="4"/>
     </row>
     <row r="336" ht="13.65" customHeight="1">
       <c r="A336" s="24"/>
       <c r="B336" t="s" s="10">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C336" s="12"/>
       <c r="D336" t="s" s="11">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E336" s="15">
         <v>7327252105</v>
@@ -20331,13 +20340,13 @@
         <v>7323977243</v>
       </c>
       <c r="G336" t="s" s="10">
+        <v>1234</v>
+      </c>
+      <c r="H336" t="s" s="16">
         <v>1235</v>
       </c>
-      <c r="H336" t="s" s="16">
+      <c r="I336" t="s" s="16">
         <v>1236</v>
-      </c>
-      <c r="I336" t="s" s="16">
-        <v>1237</v>
       </c>
       <c r="J336" t="s" s="10">
         <v>53</v>
@@ -20355,18 +20364,18 @@
         <v>623</v>
       </c>
       <c r="O336" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P336" s="4"/>
     </row>
     <row r="337" ht="13.65" customHeight="1">
       <c r="A337" s="24"/>
       <c r="B337" t="s" s="10">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C337" s="12"/>
       <c r="D337" t="s" s="11">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E337" s="15">
         <v>8324197105</v>
@@ -20376,7 +20385,7 @@
         <v>282</v>
       </c>
       <c r="H337" t="s" s="16">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I337" s="12"/>
       <c r="J337" t="s" s="10">
@@ -20395,7 +20404,7 @@
         <v>623</v>
       </c>
       <c r="O337" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P337" s="4"/>
     </row>
@@ -20448,13 +20457,13 @@
     <row r="339" ht="13.65" customHeight="1">
       <c r="A339" s="24"/>
       <c r="B339" t="s" s="10">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C339" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D339" t="s" s="11">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E339" s="15">
         <v>4087128721</v>
@@ -20464,7 +20473,7 @@
         <v>131</v>
       </c>
       <c r="H339" t="s" s="10">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I339" s="12"/>
       <c r="J339" t="s" s="13">
@@ -20490,13 +20499,13 @@
     <row r="340" ht="13.65" customHeight="1">
       <c r="A340" s="24"/>
       <c r="B340" t="s" s="10">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C340" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D340" t="s" s="11">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E340" s="15">
         <v>5104682817</v>
@@ -20505,13 +20514,13 @@
         <v>5106735672</v>
       </c>
       <c r="G340" t="s" s="10">
+        <v>1244</v>
+      </c>
+      <c r="H340" t="s" s="10">
         <v>1245</v>
       </c>
-      <c r="H340" t="s" s="10">
+      <c r="I340" t="s" s="10">
         <v>1246</v>
-      </c>
-      <c r="I340" t="s" s="10">
-        <v>1247</v>
       </c>
       <c r="J340" t="s" s="13">
         <v>199</v>
@@ -20536,13 +20545,13 @@
     <row r="341" ht="13.65" customHeight="1">
       <c r="A341" s="24"/>
       <c r="B341" t="s" s="10">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C341" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D341" t="s" s="11">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E341" s="15">
         <v>5109968285</v>
@@ -20554,7 +20563,7 @@
         <v>196</v>
       </c>
       <c r="H341" t="s" s="10">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I341" s="12"/>
       <c r="J341" t="s" s="13">
@@ -20580,13 +20589,13 @@
     <row r="342" ht="13.65" customHeight="1">
       <c r="A342" s="24"/>
       <c r="B342" t="s" s="18">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C342" t="s" s="18">
         <v>76</v>
       </c>
       <c r="D342" t="s" s="20">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E342" s="21">
         <v>5108283097</v>
@@ -20596,7 +20605,7 @@
         <v>196</v>
       </c>
       <c r="H342" t="s" s="18">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I342" s="19"/>
       <c r="J342" t="s" s="13">
@@ -20622,13 +20631,13 @@
     <row r="343" ht="13.65" customHeight="1">
       <c r="A343" s="24"/>
       <c r="B343" t="s" s="10">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C343" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D343" t="s" s="11">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E343" s="15">
         <v>5107096860</v>
@@ -20640,7 +20649,7 @@
         <v>45</v>
       </c>
       <c r="H343" t="s" s="10">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I343" s="12"/>
       <c r="J343" t="s" s="13">
@@ -20666,13 +20675,13 @@
     <row r="344" ht="13.65" customHeight="1">
       <c r="A344" s="24"/>
       <c r="B344" t="s" s="10">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C344" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D344" t="s" s="11">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E344" s="15">
         <v>4082194335</v>
@@ -20684,10 +20693,10 @@
         <v>412</v>
       </c>
       <c r="H344" t="s" s="10">
+        <v>1160</v>
+      </c>
+      <c r="I344" t="s" s="10">
         <v>1161</v>
-      </c>
-      <c r="I344" t="s" s="10">
-        <v>1162</v>
       </c>
       <c r="J344" t="s" s="13">
         <v>199</v>
@@ -20712,11 +20721,11 @@
     <row r="345" ht="13.65" customHeight="1">
       <c r="A345" s="24"/>
       <c r="B345" t="s" s="10">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C345" s="12"/>
       <c r="D345" t="s" s="11">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E345" s="15">
         <v>6507992844</v>
@@ -20728,10 +20737,10 @@
         <v>239</v>
       </c>
       <c r="H345" t="s" s="16">
+        <v>1035</v>
+      </c>
+      <c r="I345" t="s" s="16">
         <v>1036</v>
-      </c>
-      <c r="I345" t="s" s="16">
-        <v>1037</v>
       </c>
       <c r="J345" t="s" s="13">
         <v>199</v>
@@ -20796,23 +20805,23 @@
     <row r="347" ht="13.65" customHeight="1">
       <c r="A347" s="24"/>
       <c r="B347" t="s" s="10">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C347" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D347" t="s" s="11">
+        <v>1260</v>
+      </c>
+      <c r="E347" t="s" s="10">
         <v>1261</v>
-      </c>
-      <c r="E347" t="s" s="10">
-        <v>1262</v>
       </c>
       <c r="F347" s="12"/>
       <c r="G347" t="s" s="10">
         <v>196</v>
       </c>
       <c r="H347" t="s" s="10">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I347" s="12"/>
       <c r="J347" t="s" s="13">
@@ -20831,28 +20840,28 @@
         <v>623</v>
       </c>
       <c r="O347" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P347" s="4"/>
     </row>
     <row r="348" ht="13.65" customHeight="1">
       <c r="A348" s="24"/>
       <c r="B348" t="s" s="10">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C348" s="12"/>
       <c r="D348" t="s" s="11">
+        <v>1264</v>
+      </c>
+      <c r="E348" t="s" s="10">
         <v>1265</v>
-      </c>
-      <c r="E348" t="s" s="10">
-        <v>1266</v>
       </c>
       <c r="F348" s="12"/>
       <c r="G348" t="s" s="10">
+        <v>1266</v>
+      </c>
+      <c r="H348" t="s" s="16">
         <v>1267</v>
-      </c>
-      <c r="H348" t="s" s="16">
-        <v>1268</v>
       </c>
       <c r="I348" s="12"/>
       <c r="J348" t="s" s="13">
@@ -20871,30 +20880,30 @@
         <v>623</v>
       </c>
       <c r="O348" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P348" s="4"/>
     </row>
     <row r="349" ht="13.65" customHeight="1">
       <c r="A349" s="24"/>
       <c r="B349" t="s" s="10">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C349" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D349" t="s" s="11">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E349" s="15">
         <v>5105855603</v>
       </c>
       <c r="F349" s="12"/>
       <c r="G349" t="s" s="10">
+        <v>1270</v>
+      </c>
+      <c r="H349" t="s" s="10">
         <v>1271</v>
-      </c>
-      <c r="H349" t="s" s="10">
-        <v>1272</v>
       </c>
       <c r="I349" s="12"/>
       <c r="J349" t="s" s="13">
@@ -20913,30 +20922,30 @@
         <v>623</v>
       </c>
       <c r="O349" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P349" s="4"/>
     </row>
     <row r="350" ht="13.65" customHeight="1">
       <c r="A350" s="24"/>
       <c r="B350" t="s" s="10">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C350" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D350" t="s" s="11">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E350" s="15">
         <v>9796610828</v>
       </c>
       <c r="F350" s="12"/>
       <c r="G350" t="s" s="10">
+        <v>1274</v>
+      </c>
+      <c r="H350" t="s" s="10">
         <v>1275</v>
-      </c>
-      <c r="H350" t="s" s="10">
-        <v>1276</v>
       </c>
       <c r="I350" s="12"/>
       <c r="J350" t="s" s="13">
@@ -20955,28 +20964,28 @@
         <v>623</v>
       </c>
       <c r="O350" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P350" s="4"/>
     </row>
     <row r="351" ht="13.65" customHeight="1">
       <c r="A351" s="24"/>
       <c r="B351" t="s" s="10">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C351" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="D351" s="10"/>
+      <c r="D351" s="12"/>
       <c r="E351" t="s" s="10">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F351" s="12"/>
       <c r="G351" t="s" s="10">
         <v>196</v>
       </c>
       <c r="H351" t="s" s="10">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I351" s="26"/>
       <c r="J351" t="s" s="13">
@@ -20995,30 +21004,30 @@
         <v>623</v>
       </c>
       <c r="O351" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P351" s="4"/>
     </row>
     <row r="352" ht="13.65" customHeight="1">
       <c r="A352" s="24"/>
       <c r="B352" t="s" s="10">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C352" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D352" t="s" s="11">
+        <v>1280</v>
+      </c>
+      <c r="E352" t="s" s="10">
         <v>1281</v>
-      </c>
-      <c r="E352" t="s" s="10">
-        <v>1282</v>
       </c>
       <c r="F352" s="12"/>
       <c r="G352" t="s" s="10">
         <v>196</v>
       </c>
       <c r="H352" t="s" s="10">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I352" s="12"/>
       <c r="J352" t="s" s="13">
@@ -21037,18 +21046,18 @@
         <v>623</v>
       </c>
       <c r="O352" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P352" s="4"/>
     </row>
     <row r="353" ht="13.65" customHeight="1">
       <c r="A353" s="24"/>
       <c r="B353" t="s" s="10">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C353" s="12"/>
       <c r="D353" t="s" s="11">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E353" s="15">
         <v>5104027041</v>
@@ -21081,30 +21090,30 @@
         <v>623</v>
       </c>
       <c r="O353" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P353" s="4"/>
     </row>
     <row r="354" ht="13.65" customHeight="1">
       <c r="A354" s="24"/>
       <c r="B354" t="s" s="18">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C354" t="s" s="18">
         <v>19</v>
       </c>
       <c r="D354" t="s" s="20">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E354" s="21">
         <v>6504301642</v>
       </c>
       <c r="F354" s="19"/>
       <c r="G354" t="s" s="18">
+        <v>1287</v>
+      </c>
+      <c r="H354" t="s" s="18">
         <v>1288</v>
-      </c>
-      <c r="H354" t="s" s="18">
-        <v>1289</v>
       </c>
       <c r="I354" s="19"/>
       <c r="J354" t="s" s="13">
@@ -21123,20 +21132,20 @@
         <v>623</v>
       </c>
       <c r="O354" t="s" s="32">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P354" s="4"/>
     </row>
     <row r="355" ht="13.65" customHeight="1">
       <c r="A355" s="24"/>
       <c r="B355" t="s" s="10">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C355" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D355" t="s" s="11">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E355" s="15">
         <v>5103865681</v>
@@ -21148,7 +21157,7 @@
         <v>196</v>
       </c>
       <c r="H355" t="s" s="10">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I355" s="26"/>
       <c r="J355" t="s" s="13">
@@ -21164,7 +21173,7 @@
         <v>993</v>
       </c>
       <c r="N355" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O355" t="s" s="32">
         <v>162</v>
@@ -21174,23 +21183,23 @@
     <row r="356" ht="13.65" customHeight="1">
       <c r="A356" s="24"/>
       <c r="B356" t="s" s="10">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C356" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D356" t="s" s="11">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E356" s="12"/>
       <c r="F356" s="15">
         <v>4089313861</v>
       </c>
       <c r="G356" t="s" s="10">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H356" t="s" s="10">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I356" s="12"/>
       <c r="J356" t="s" s="13">
@@ -21206,7 +21215,7 @@
         <v>993</v>
       </c>
       <c r="N356" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O356" t="s" s="32">
         <v>162</v>
@@ -21216,13 +21225,13 @@
     <row r="357" ht="13.65" customHeight="1">
       <c r="A357" s="24"/>
       <c r="B357" t="s" s="10">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C357" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D357" t="s" s="11">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E357" s="15">
         <v>5106480289</v>
@@ -21232,7 +21241,7 @@
         <v>196</v>
       </c>
       <c r="H357" t="s" s="10">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I357" s="12"/>
       <c r="J357" t="s" s="13">
@@ -21248,7 +21257,7 @@
         <v>993</v>
       </c>
       <c r="N357" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O357" t="s" s="32">
         <v>162</v>
@@ -21258,13 +21267,13 @@
     <row r="358" ht="13.65" customHeight="1">
       <c r="A358" s="24"/>
       <c r="B358" t="s" s="10">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C358" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D358" t="s" s="11">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E358" s="15">
         <v>5106480289</v>
@@ -21274,7 +21283,7 @@
         <v>239</v>
       </c>
       <c r="H358" t="s" s="10">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I358" s="12"/>
       <c r="J358" t="s" s="13">
@@ -21290,7 +21299,7 @@
         <v>993</v>
       </c>
       <c r="N358" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O358" t="s" s="32">
         <v>162</v>
@@ -21300,23 +21309,23 @@
     <row r="359" ht="13.65" customHeight="1">
       <c r="A359" s="24"/>
       <c r="B359" t="s" s="10">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C359" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D359" t="s" s="11">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E359" s="15">
         <v>4088327792</v>
       </c>
       <c r="F359" s="12"/>
       <c r="G359" t="s" s="10">
+        <v>1301</v>
+      </c>
+      <c r="H359" t="s" s="10">
         <v>1302</v>
-      </c>
-      <c r="H359" t="s" s="10">
-        <v>1303</v>
       </c>
       <c r="I359" s="12"/>
       <c r="J359" t="s" s="13">
@@ -21332,7 +21341,7 @@
         <v>993</v>
       </c>
       <c r="N359" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O359" t="s" s="32">
         <v>162</v>
@@ -21348,7 +21357,7 @@
         <v>85</v>
       </c>
       <c r="D360" t="s" s="11">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E360" s="15">
         <v>5109008273</v>
@@ -21360,7 +21369,7 @@
         <v>239</v>
       </c>
       <c r="H360" t="s" s="10">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I360" s="12"/>
       <c r="J360" t="s" s="13">
@@ -21376,7 +21385,7 @@
         <v>993</v>
       </c>
       <c r="N360" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O360" t="s" s="32">
         <v>162</v>
@@ -21386,11 +21395,11 @@
     <row r="361" ht="13.65" customHeight="1">
       <c r="A361" s="24"/>
       <c r="B361" t="s" s="10">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C361" s="12"/>
       <c r="D361" t="s" s="11">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E361" s="15">
         <v>4084649880</v>
@@ -21402,10 +21411,10 @@
         <v>239</v>
       </c>
       <c r="H361" t="s" s="10">
+        <v>1307</v>
+      </c>
+      <c r="I361" t="s" s="10">
         <v>1308</v>
-      </c>
-      <c r="I361" t="s" s="10">
-        <v>1309</v>
       </c>
       <c r="J361" t="s" s="13">
         <v>231</v>
@@ -21420,7 +21429,7 @@
         <v>993</v>
       </c>
       <c r="N361" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O361" t="s" s="32">
         <v>162</v>
@@ -21430,13 +21439,13 @@
     <row r="362" ht="13.65" customHeight="1">
       <c r="A362" s="24"/>
       <c r="B362" t="s" s="10">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C362" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D362" t="s" s="11">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E362" s="15">
         <v>5109968285</v>
@@ -21448,7 +21457,7 @@
         <v>239</v>
       </c>
       <c r="H362" t="s" s="10">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I362" s="12"/>
       <c r="J362" t="s" s="13">
@@ -21464,7 +21473,7 @@
         <v>993</v>
       </c>
       <c r="N362" t="s" s="31">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O362" t="s" s="32">
         <v>162</v>
@@ -21474,13 +21483,13 @@
     <row r="363" ht="13.65" customHeight="1">
       <c r="A363" s="24"/>
       <c r="B363" t="s" s="10">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C363" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D363" t="s" s="11">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E363" s="15">
         <v>5107098887</v>
@@ -21492,7 +21501,7 @@
         <v>228</v>
       </c>
       <c r="H363" t="s" s="10">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I363" s="12"/>
       <c r="J363" t="s" s="13">
@@ -21518,13 +21527,13 @@
     <row r="364" ht="13.65" customHeight="1">
       <c r="A364" s="24"/>
       <c r="B364" t="s" s="10">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C364" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D364" t="s" s="11">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E364" s="15">
         <v>6504838336</v>
@@ -21534,10 +21543,10 @@
         <v>865</v>
       </c>
       <c r="H364" t="s" s="10">
+        <v>1154</v>
+      </c>
+      <c r="I364" t="s" s="10">
         <v>1155</v>
-      </c>
-      <c r="I364" t="s" s="10">
-        <v>1156</v>
       </c>
       <c r="J364" t="s" s="13">
         <v>231</v>
@@ -21562,13 +21571,13 @@
     <row r="365" ht="13.65" customHeight="1">
       <c r="A365" s="24"/>
       <c r="B365" t="s" s="10">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C365" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D365" t="s" s="11">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E365" s="15">
         <v>4088217088</v>
@@ -21580,10 +21589,10 @@
         <v>239</v>
       </c>
       <c r="H365" t="s" s="10">
+        <v>1318</v>
+      </c>
+      <c r="I365" t="s" s="10">
         <v>1319</v>
-      </c>
-      <c r="I365" t="s" s="10">
-        <v>1320</v>
       </c>
       <c r="J365" t="s" s="13">
         <v>231</v>
@@ -21608,13 +21617,13 @@
     <row r="366" ht="13.65" customHeight="1">
       <c r="A366" s="24"/>
       <c r="B366" t="s" s="10">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C366" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D366" t="s" s="11">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E366" s="15">
         <v>4088217088</v>
@@ -21626,10 +21635,10 @@
         <v>228</v>
       </c>
       <c r="H366" t="s" s="10">
+        <v>1318</v>
+      </c>
+      <c r="I366" t="s" s="10">
         <v>1319</v>
-      </c>
-      <c r="I366" t="s" s="10">
-        <v>1320</v>
       </c>
       <c r="J366" t="s" s="13">
         <v>231</v>
@@ -21654,13 +21663,13 @@
     <row r="367" ht="13.65" customHeight="1">
       <c r="A367" s="24"/>
       <c r="B367" t="s" s="10">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C367" t="s" s="10">
         <v>85</v>
       </c>
       <c r="D367" t="s" s="11">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E367" s="15">
         <v>5104023286</v>
@@ -21670,7 +21679,7 @@
         <v>239</v>
       </c>
       <c r="H367" t="s" s="10">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I367" s="12"/>
       <c r="J367" t="s" s="13">
@@ -21696,28 +21705,28 @@
     <row r="368" ht="13.65" customHeight="1">
       <c r="A368" s="24"/>
       <c r="B368" t="s" s="10">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C368" t="s" s="10">
         <v>76</v>
       </c>
       <c r="D368" t="s" s="11">
+        <v>1326</v>
+      </c>
+      <c r="E368" t="s" s="10">
         <v>1327</v>
       </c>
-      <c r="E368" t="s" s="10">
+      <c r="F368" t="s" s="10">
         <v>1328</v>
       </c>
-      <c r="F368" t="s" s="10">
+      <c r="G368" t="s" s="10">
         <v>1329</v>
       </c>
-      <c r="G368" t="s" s="10">
+      <c r="H368" t="s" s="10">
         <v>1330</v>
       </c>
-      <c r="H368" t="s" s="10">
+      <c r="I368" t="s" s="10">
         <v>1331</v>
-      </c>
-      <c r="I368" t="s" s="10">
-        <v>1332</v>
       </c>
       <c r="J368" t="s" s="13">
         <v>231</v>
@@ -21742,13 +21751,13 @@
     <row r="369" ht="13.65" customHeight="1">
       <c r="A369" s="24"/>
       <c r="B369" t="s" s="49">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C369" t="s" s="49">
         <v>76</v>
       </c>
       <c r="D369" t="s" s="50">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E369" s="51">
         <v>5105655278</v>
@@ -21760,10 +21769,10 @@
         <v>239</v>
       </c>
       <c r="H369" t="s" s="49">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I369" t="s" s="49">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="J369" t="s" s="13">
         <v>231</v>
